--- a/TestCases/ZavrsniProjekat.xlsx
+++ b/TestCases/ZavrsniProjekat.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="577" uniqueCount="248">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="652" uniqueCount="271">
   <si>
     <t xml:space="preserve">Test Case ID</t>
   </si>
@@ -843,30 +843,56 @@
     <t xml:space="preserve">The prompt box disappears from screen and text doesn’t appear</t>
   </si>
   <si>
-    <t xml:space="preserve">Scenario CheckBox</t>
+    <t xml:space="preserve">Scenario Radio Button</t>
   </si>
   <si>
     <t xml:space="preserve">TC_30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify that the “Radio Button” page is opened when a user clicks on “Radio Button tab” </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Click on the “Radio Button” tab.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The “Radio Button” page is loaded</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC_31</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify that all elements are present and visible on the Radio Button page </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Check the sentence “Do you like the site?” is present above radio buttons.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The sentence “Do you like the site?” is present above radio buttons.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Check radio buttons: “Yes” , “Impressive” , “No” are present and visible</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The radio buttons: “Yes” , “Impressive” and “No” are present and visible</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC_32</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify that when a user clicks on the “Yes” radio button, the button is selected, and a text “You have selected Yes” appears underneath the radio buttons.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No radio button is selected</t>
   </si>
   <si>
     <r>
       <rPr>
         <sz val="10"/>
-        <color rgb="FF000000"/>
         <rFont val="Arial"/>
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">Verify that when the user clicks on “Check Box” a new page “</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Check Box</t>
+      <t xml:space="preserve">Click on “</t>
     </r>
     <r>
       <rPr>
@@ -876,14 +902,231 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">” is opened.</t>
+      <t xml:space="preserve">Yes</t>
     </r>
-  </si>
-  <si>
-    <t xml:space="preserve">Click on the “Check Box” tab</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The “Check Box” page loaded , Header of Page is “Check Box”</t>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">” radio button</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">The radio button “</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Yes</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">” is selected and text appears “</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">You have selected Yes”</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">TC_33</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify that when a user clicks on the “Impressive” radio button, the button is selected, and a text “You have selected Impressive” appears underneath the radio buttons.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Click on “</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Impressive</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">” radio button</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">The radio button “</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Impressive</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">” is selected and text appears “</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">You have selected Impressive”</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">TC_34</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify that when a user can’t click the radio button “No” </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Click on “No” radio button</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The mouse pointer transforms into a restricted sign and the radio button can't be clicked.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC_35</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify that a user can switch between radio buttons.Only one radio button can be selected</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">The radio button “</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Impressive</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">” is selected and text appears “</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">You have selected Impressive” and the “Yes” radio button is deselected</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">The radio button did not switch, the radio button “</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Impressive</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">” is selected and text appears “</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">You have selected Impressive”</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">Url:</t>
@@ -1065,7 +1308,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="@"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="8">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -1107,12 +1350,6 @@
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -1195,7 +1432,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="37">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1284,6 +1521,10 @@
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1324,7 +1565,7 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1417,12 +1658,12 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F199"/>
+  <dimension ref="A1:F233"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A173" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A206" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="D205" activeCellId="0" sqref="D205"/>
+      <selection pane="bottomLeft" activeCell="D239" activeCellId="0" sqref="D239"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3865,62 +4106,484 @@
       <c r="E195" s="5"/>
       <c r="F195" s="5"/>
     </row>
-    <row r="196" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="196" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A196" s="6" t="s">
         <v>187</v>
       </c>
       <c r="B196" s="15" t="s">
         <v>188</v>
       </c>
-      <c r="C196" s="7"/>
+      <c r="C196" s="20"/>
       <c r="D196" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="E196" s="7"/>
-      <c r="F196" s="7" t="s">
+      <c r="E196" s="20"/>
+      <c r="F196" s="2" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="197" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A197" s="6"/>
-      <c r="B197" s="7"/>
-      <c r="C197" s="7"/>
+      <c r="A197" s="20"/>
+      <c r="B197" s="15"/>
+      <c r="C197" s="20"/>
       <c r="D197" s="7" t="s">
         <v>11</v>
       </c>
       <c r="E197" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="F197" s="7" t="s">
+      <c r="F197" s="2" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="198" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A198" s="6"/>
-      <c r="B198" s="7"/>
-      <c r="C198" s="7"/>
+      <c r="A198" s="20"/>
+      <c r="B198" s="20"/>
+      <c r="C198" s="20"/>
       <c r="D198" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="E198" s="18"/>
+      <c r="E198" s="20"/>
       <c r="F198" s="9" t="s">
-        <v>28</v>
+        <v>52</v>
       </c>
     </row>
     <row r="199" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A199" s="6"/>
-      <c r="B199" s="7"/>
-      <c r="C199" s="7"/>
+      <c r="A199" s="20"/>
+      <c r="B199" s="20"/>
+      <c r="C199" s="20"/>
       <c r="D199" s="7" t="s">
         <v>189</v>
       </c>
-      <c r="E199" s="7"/>
+      <c r="E199" s="20"/>
       <c r="F199" s="9" t="s">
         <v>190</v>
       </c>
     </row>
+    <row r="200" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A200" s="5"/>
+      <c r="B200" s="5"/>
+      <c r="C200" s="5"/>
+      <c r="D200" s="5"/>
+      <c r="E200" s="5"/>
+      <c r="F200" s="5"/>
+    </row>
+    <row r="201" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A201" s="6" t="s">
+        <v>191</v>
+      </c>
+      <c r="B201" s="15" t="s">
+        <v>192</v>
+      </c>
+      <c r="C201" s="0"/>
+      <c r="D201" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E201" s="20"/>
+      <c r="F201" s="7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="202" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A202" s="20"/>
+      <c r="B202" s="15"/>
+      <c r="C202" s="0"/>
+      <c r="D202" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E202" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F202" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="203" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A203" s="20"/>
+      <c r="B203" s="20"/>
+      <c r="C203" s="0"/>
+      <c r="D203" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E203" s="20"/>
+      <c r="F203" s="9" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="204" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A204" s="20"/>
+      <c r="B204" s="20"/>
+      <c r="C204" s="20"/>
+      <c r="D204" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="E204" s="20"/>
+      <c r="F204" s="9" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="205" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A205" s="20"/>
+      <c r="B205" s="20"/>
+      <c r="C205" s="20"/>
+      <c r="D205" s="13" t="s">
+        <v>193</v>
+      </c>
+      <c r="E205" s="20"/>
+      <c r="F205" s="12" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="206" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A206" s="20"/>
+      <c r="B206" s="20"/>
+      <c r="C206" s="20"/>
+      <c r="D206" s="20" t="s">
+        <v>195</v>
+      </c>
+      <c r="E206" s="20"/>
+      <c r="F206" s="12" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="207" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A207" s="5"/>
+      <c r="B207" s="5"/>
+      <c r="C207" s="5"/>
+      <c r="D207" s="5"/>
+      <c r="E207" s="5"/>
+      <c r="F207" s="5"/>
+    </row>
+    <row r="208" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A208" s="6" t="s">
+        <v>197</v>
+      </c>
+      <c r="B208" s="15" t="s">
+        <v>198</v>
+      </c>
+      <c r="C208" s="11" t="s">
+        <v>199</v>
+      </c>
+      <c r="D208" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E208" s="20"/>
+      <c r="F208" s="7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="209" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A209" s="20"/>
+      <c r="B209" s="15"/>
+      <c r="C209" s="11"/>
+      <c r="D209" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E209" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F209" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="210" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A210" s="20"/>
+      <c r="B210" s="15"/>
+      <c r="C210" s="11"/>
+      <c r="D210" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E210" s="20"/>
+      <c r="F210" s="9" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="211" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A211" s="20"/>
+      <c r="B211" s="20"/>
+      <c r="C211" s="20"/>
+      <c r="D211" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="E211" s="20"/>
+      <c r="F211" s="9" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="212" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A212" s="20"/>
+      <c r="B212" s="20"/>
+      <c r="C212" s="20"/>
+      <c r="D212" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="E212" s="20"/>
+      <c r="F212" s="12" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="213" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A213" s="5"/>
+      <c r="B213" s="5"/>
+      <c r="C213" s="5"/>
+      <c r="D213" s="5"/>
+      <c r="E213" s="5"/>
+      <c r="F213" s="5"/>
+    </row>
+    <row r="214" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A214" s="6" t="s">
+        <v>202</v>
+      </c>
+      <c r="B214" s="15" t="s">
+        <v>203</v>
+      </c>
+      <c r="C214" s="11" t="s">
+        <v>199</v>
+      </c>
+      <c r="D214" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E214" s="20"/>
+      <c r="F214" s="7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="215" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A215" s="20"/>
+      <c r="B215" s="15"/>
+      <c r="C215" s="11"/>
+      <c r="D215" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E215" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F215" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="216" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A216" s="20"/>
+      <c r="B216" s="15"/>
+      <c r="C216" s="11"/>
+      <c r="D216" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E216" s="20"/>
+      <c r="F216" s="9" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="217" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A217" s="20"/>
+      <c r="B217" s="20"/>
+      <c r="C217" s="20"/>
+      <c r="D217" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="E217" s="20"/>
+      <c r="F217" s="9" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="218" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A218" s="20"/>
+      <c r="B218" s="20"/>
+      <c r="C218" s="20"/>
+      <c r="D218" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="E218" s="20"/>
+      <c r="F218" s="12" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="219" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A219" s="5"/>
+      <c r="B219" s="5"/>
+      <c r="C219" s="5"/>
+      <c r="D219" s="5"/>
+      <c r="E219" s="5"/>
+      <c r="F219" s="5"/>
+    </row>
+    <row r="220" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A220" s="6" t="s">
+        <v>206</v>
+      </c>
+      <c r="B220" s="15" t="s">
+        <v>207</v>
+      </c>
+      <c r="C220" s="11" t="s">
+        <v>199</v>
+      </c>
+      <c r="D220" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E220" s="20"/>
+      <c r="F220" s="7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="221" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A221" s="20"/>
+      <c r="B221" s="15"/>
+      <c r="C221" s="11"/>
+      <c r="D221" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E221" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F221" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="222" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A222" s="20"/>
+      <c r="B222" s="15"/>
+      <c r="C222" s="11"/>
+      <c r="D222" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E222" s="20"/>
+      <c r="F222" s="9" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="223" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A223" s="20"/>
+      <c r="B223" s="20"/>
+      <c r="C223" s="20"/>
+      <c r="D223" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="E223" s="20"/>
+      <c r="F223" s="9" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="224" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A224" s="20"/>
+      <c r="B224" s="20"/>
+      <c r="C224" s="20"/>
+      <c r="D224" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="E224" s="20"/>
+      <c r="F224" s="12" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="225" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A225" s="5"/>
+      <c r="B225" s="5"/>
+      <c r="C225" s="5"/>
+      <c r="D225" s="5"/>
+      <c r="E225" s="5"/>
+      <c r="F225" s="5"/>
+    </row>
+    <row r="226" customFormat="false" ht="23.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A226" s="6" t="s">
+        <v>210</v>
+      </c>
+      <c r="B226" s="15" t="s">
+        <v>211</v>
+      </c>
+      <c r="C226" s="11" t="s">
+        <v>199</v>
+      </c>
+      <c r="D226" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E226" s="20"/>
+      <c r="F226" s="7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="227" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A227" s="20"/>
+      <c r="B227" s="15"/>
+      <c r="C227" s="11"/>
+      <c r="D227" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E227" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F227" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="228" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A228" s="20"/>
+      <c r="B228" s="15"/>
+      <c r="C228" s="11"/>
+      <c r="D228" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E228" s="20"/>
+      <c r="F228" s="9" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="229" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A229" s="20"/>
+      <c r="B229" s="20"/>
+      <c r="C229" s="20"/>
+      <c r="D229" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="E229" s="20"/>
+      <c r="F229" s="9" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="230" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A230" s="20"/>
+      <c r="B230" s="20"/>
+      <c r="C230" s="20"/>
+      <c r="D230" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="E230" s="20"/>
+      <c r="F230" s="12" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="231" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A231" s="20"/>
+      <c r="B231" s="20"/>
+      <c r="C231" s="20"/>
+      <c r="D231" s="22" t="s">
+        <v>204</v>
+      </c>
+      <c r="E231" s="20"/>
+      <c r="F231" s="12" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="232" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A232" s="20"/>
+      <c r="B232" s="20"/>
+      <c r="C232" s="20"/>
+      <c r="D232" s="22" t="s">
+        <v>208</v>
+      </c>
+      <c r="E232" s="20"/>
+      <c r="F232" s="12" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="233" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A233" s="5"/>
+      <c r="B233" s="5"/>
+      <c r="C233" s="5"/>
+      <c r="D233" s="5"/>
+      <c r="E233" s="5"/>
+      <c r="F233" s="5"/>
+    </row>
   </sheetData>
-  <mergeCells count="48">
+  <mergeCells count="61">
     <mergeCell ref="A2:F2"/>
     <mergeCell ref="B11:B12"/>
     <mergeCell ref="B15:B16"/>
@@ -3969,6 +4632,19 @@
     <mergeCell ref="A187:F187"/>
     <mergeCell ref="B188:B190"/>
     <mergeCell ref="A195:F195"/>
+    <mergeCell ref="B196:B197"/>
+    <mergeCell ref="A200:F200"/>
+    <mergeCell ref="A207:F207"/>
+    <mergeCell ref="B208:B210"/>
+    <mergeCell ref="C208:C210"/>
+    <mergeCell ref="A213:F213"/>
+    <mergeCell ref="B214:B216"/>
+    <mergeCell ref="C214:C216"/>
+    <mergeCell ref="A219:F219"/>
+    <mergeCell ref="C220:C222"/>
+    <mergeCell ref="A225:F225"/>
+    <mergeCell ref="C226:C228"/>
+    <mergeCell ref="A233:F233"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="E4" r:id="rId1" display="https://demoqa.com/"/>
@@ -4015,6 +4691,11 @@
     <hyperlink ref="E181" r:id="rId42" display="https://demoqa.com/"/>
     <hyperlink ref="E189" r:id="rId43" display="https://demoqa.com/"/>
     <hyperlink ref="E197" r:id="rId44" display="https://demoqa.com/"/>
+    <hyperlink ref="E202" r:id="rId45" display="https://demoqa.com/"/>
+    <hyperlink ref="E209" r:id="rId46" display="https://demoqa.com/"/>
+    <hyperlink ref="E215" r:id="rId47" display="https://demoqa.com/"/>
+    <hyperlink ref="E221" r:id="rId48" display="https://demoqa.com/"/>
+    <hyperlink ref="E227" r:id="rId49" display="https://demoqa.com/"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
@@ -4039,9 +4720,9 @@
       <selection pane="bottomLeft" activeCell="B55" activeCellId="0" sqref="B55"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.72265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.7421875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="22" width="6.16"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="23" width="6.16"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="64.19"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="2" width="54.74"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="2" width="34.78"/>
@@ -4049,7 +4730,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="6" t="s">
-        <v>191</v>
+        <v>214</v>
       </c>
       <c r="B1" s="8" t="s">
         <v>12</v>
@@ -4059,205 +4740,205 @@
     </row>
     <row r="2" customFormat="false" ht="18.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="4" t="s">
-        <v>192</v>
-      </c>
-      <c r="B2" s="23" t="s">
-        <v>193</v>
+        <v>215</v>
+      </c>
+      <c r="B2" s="24" t="s">
+        <v>216</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>194</v>
+        <v>217</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>195</v>
+        <v>218</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="24" t="s">
+      <c r="A3" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="24" t="s">
-        <v>196</v>
-      </c>
-      <c r="C3" s="25"/>
-      <c r="D3" s="25"/>
+      <c r="B3" s="25" t="s">
+        <v>219</v>
+      </c>
+      <c r="C3" s="26"/>
+      <c r="D3" s="26"/>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4" s="7"/>
       <c r="C4" s="7" t="s">
-        <v>197</v>
+        <v>220</v>
       </c>
       <c r="D4" s="7"/>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="24" t="s">
+      <c r="A5" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="B5" s="24" t="s">
-        <v>198</v>
-      </c>
-      <c r="C5" s="25"/>
-      <c r="D5" s="25"/>
+      <c r="B5" s="25" t="s">
+        <v>221</v>
+      </c>
+      <c r="C5" s="26"/>
+      <c r="D5" s="26"/>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C6" s="7" t="s">
-        <v>199</v>
+        <v>222</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="24" t="s">
+      <c r="A7" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="B7" s="26" t="s">
-        <v>200</v>
-      </c>
-      <c r="C7" s="26"/>
-      <c r="D7" s="26"/>
+      <c r="B7" s="27" t="s">
+        <v>223</v>
+      </c>
+      <c r="C7" s="27"/>
+      <c r="D7" s="27"/>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="27"/>
-      <c r="B8" s="28" t="s">
-        <v>201</v>
+      <c r="A8" s="28"/>
+      <c r="B8" s="29" t="s">
+        <v>224</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>201</v>
+        <v>224</v>
       </c>
       <c r="D8" s="7"/>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="24" t="s">
+      <c r="A9" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="B9" s="24" t="s">
-        <v>202</v>
-      </c>
-      <c r="C9" s="25"/>
-      <c r="D9" s="25"/>
+      <c r="B9" s="25" t="s">
+        <v>225</v>
+      </c>
+      <c r="C9" s="26"/>
+      <c r="D9" s="26"/>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="27"/>
+      <c r="A10" s="28"/>
       <c r="B10" s="2" t="s">
-        <v>203</v>
+        <v>226</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>203</v>
+        <v>226</v>
       </c>
       <c r="D10" s="7"/>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="24" t="s">
+      <c r="A11" s="25" t="s">
         <v>33</v>
       </c>
-      <c r="B11" s="24" t="s">
-        <v>204</v>
-      </c>
-      <c r="C11" s="25"/>
-      <c r="D11" s="25"/>
+      <c r="B11" s="25" t="s">
+        <v>227</v>
+      </c>
+      <c r="C11" s="26"/>
+      <c r="D11" s="26"/>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="27"/>
+      <c r="A12" s="28"/>
       <c r="B12" s="2" t="s">
-        <v>205</v>
+        <v>228</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>205</v>
+        <v>228</v>
       </c>
       <c r="D12" s="7"/>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="24" t="s">
+      <c r="A13" s="25" t="s">
         <v>37</v>
       </c>
-      <c r="B13" s="24" t="s">
-        <v>206</v>
-      </c>
-      <c r="C13" s="25"/>
-      <c r="D13" s="25"/>
+      <c r="B13" s="25" t="s">
+        <v>229</v>
+      </c>
+      <c r="C13" s="26"/>
+      <c r="D13" s="26"/>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="27"/>
-      <c r="B14" s="29" t="s">
-        <v>207</v>
-      </c>
-      <c r="C14" s="29" t="s">
-        <v>207</v>
+      <c r="A14" s="28"/>
+      <c r="B14" s="30" t="s">
+        <v>230</v>
+      </c>
+      <c r="C14" s="30" t="s">
+        <v>230</v>
       </c>
       <c r="D14" s="7"/>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="24" t="s">
+      <c r="A15" s="25" t="s">
         <v>41</v>
       </c>
-      <c r="B15" s="24" t="s">
-        <v>208</v>
-      </c>
-      <c r="C15" s="25"/>
-      <c r="D15" s="25"/>
+      <c r="B15" s="25" t="s">
+        <v>231</v>
+      </c>
+      <c r="C15" s="26"/>
+      <c r="D15" s="26"/>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="27"/>
-      <c r="B16" s="29" t="s">
-        <v>208</v>
-      </c>
-      <c r="C16" s="29" t="s">
-        <v>208</v>
+      <c r="A16" s="28"/>
+      <c r="B16" s="30" t="s">
+        <v>231</v>
+      </c>
+      <c r="C16" s="30" t="s">
+        <v>231</v>
       </c>
       <c r="D16" s="7"/>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="24" t="s">
+      <c r="A17" s="25" t="s">
         <v>45</v>
       </c>
-      <c r="B17" s="24" t="s">
-        <v>209</v>
-      </c>
-      <c r="C17" s="25"/>
-      <c r="D17" s="25"/>
+      <c r="B17" s="25" t="s">
+        <v>232</v>
+      </c>
+      <c r="C17" s="26"/>
+      <c r="D17" s="26"/>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="27"/>
-      <c r="B18" s="29" t="s">
-        <v>210</v>
-      </c>
-      <c r="C18" s="29" t="s">
-        <v>210</v>
+      <c r="A18" s="28"/>
+      <c r="B18" s="30" t="s">
+        <v>233</v>
+      </c>
+      <c r="C18" s="30" t="s">
+        <v>233</v>
       </c>
       <c r="D18" s="7"/>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="24" t="s">
+      <c r="A19" s="25" t="s">
         <v>50</v>
       </c>
-      <c r="B19" s="26" t="s">
-        <v>211</v>
-      </c>
-      <c r="C19" s="26"/>
-      <c r="D19" s="26"/>
+      <c r="B19" s="27" t="s">
+        <v>234</v>
+      </c>
+      <c r="C19" s="27"/>
+      <c r="D19" s="27"/>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B20" s="28" t="s">
-        <v>212</v>
+      <c r="B20" s="29" t="s">
+        <v>235</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>212</v>
+        <v>235</v>
       </c>
       <c r="D20" s="7"/>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="24" t="s">
+      <c r="A21" s="25" t="s">
         <v>55</v>
       </c>
-      <c r="B21" s="26" t="s">
-        <v>213</v>
-      </c>
-      <c r="C21" s="26"/>
-      <c r="D21" s="26"/>
+      <c r="B21" s="27" t="s">
+        <v>236</v>
+      </c>
+      <c r="C21" s="27"/>
+      <c r="D21" s="27"/>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B22" s="7" t="s">
         <v>59</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>214</v>
+        <v>237</v>
       </c>
       <c r="D22" s="7"/>
     </row>
@@ -4266,7 +4947,7 @@
         <v>62</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>215</v>
+        <v>238</v>
       </c>
       <c r="D23" s="7"/>
     </row>
@@ -4275,7 +4956,7 @@
         <v>65</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>216</v>
+        <v>239</v>
       </c>
       <c r="D24" s="7"/>
     </row>
@@ -4284,278 +4965,278 @@
         <v>65</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>217</v>
+        <v>240</v>
       </c>
       <c r="D25" s="20"/>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="24" t="s">
+      <c r="A26" s="25" t="s">
         <v>71</v>
       </c>
-      <c r="B26" s="24" t="s">
-        <v>218</v>
-      </c>
-      <c r="C26" s="25"/>
-      <c r="D26" s="25"/>
+      <c r="B26" s="25" t="s">
+        <v>241</v>
+      </c>
+      <c r="C26" s="26"/>
+      <c r="D26" s="26"/>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="27"/>
+      <c r="A27" s="28"/>
       <c r="B27" s="8" t="s">
         <v>74</v>
       </c>
       <c r="C27" s="8" t="s">
-        <v>219</v>
+        <v>242</v>
       </c>
       <c r="D27" s="20"/>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="27"/>
+      <c r="A28" s="28"/>
       <c r="B28" s="8" t="s">
         <v>77</v>
       </c>
       <c r="C28" s="8" t="s">
-        <v>220</v>
+        <v>243</v>
       </c>
       <c r="D28" s="20"/>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="24" t="s">
+      <c r="A29" s="25" t="s">
         <v>120</v>
       </c>
-      <c r="B29" s="24" t="s">
-        <v>221</v>
-      </c>
-      <c r="C29" s="25"/>
-      <c r="D29" s="25"/>
+      <c r="B29" s="25" t="s">
+        <v>244</v>
+      </c>
+      <c r="C29" s="26"/>
+      <c r="D29" s="26"/>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B30" s="29" t="s">
-        <v>222</v>
-      </c>
-      <c r="C30" s="29" t="s">
-        <v>222</v>
+      <c r="B30" s="30" t="s">
+        <v>245</v>
+      </c>
+      <c r="C30" s="30" t="s">
+        <v>245</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="24" t="s">
+      <c r="A31" s="25" t="s">
         <v>126</v>
       </c>
-      <c r="B31" s="24" t="s">
-        <v>223</v>
-      </c>
-      <c r="C31" s="25"/>
-      <c r="D31" s="25"/>
+      <c r="B31" s="25" t="s">
+        <v>246</v>
+      </c>
+      <c r="C31" s="26"/>
+      <c r="D31" s="26"/>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B32" s="2" t="s">
-        <v>224</v>
+        <v>247</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>224</v>
+        <v>247</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="24" t="s">
+      <c r="A33" s="25" t="s">
         <v>130</v>
       </c>
-      <c r="B33" s="24" t="s">
-        <v>225</v>
-      </c>
-      <c r="C33" s="25"/>
-      <c r="D33" s="25"/>
+      <c r="B33" s="25" t="s">
+        <v>248</v>
+      </c>
+      <c r="C33" s="26"/>
+      <c r="D33" s="26"/>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B34" s="2" t="s">
-        <v>224</v>
+        <v>247</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>224</v>
+        <v>247</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="24" t="s">
+      <c r="A35" s="25" t="s">
         <v>134</v>
       </c>
-      <c r="B35" s="24" t="s">
-        <v>226</v>
-      </c>
-      <c r="C35" s="25"/>
-      <c r="D35" s="25"/>
+      <c r="B35" s="25" t="s">
+        <v>249</v>
+      </c>
+      <c r="C35" s="26"/>
+      <c r="D35" s="26"/>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A36" s="2"/>
-      <c r="B36" s="30" t="s">
-        <v>227</v>
-      </c>
-      <c r="C36" s="30" t="s">
-        <v>227</v>
+      <c r="B36" s="31" t="s">
+        <v>250</v>
+      </c>
+      <c r="C36" s="31" t="s">
+        <v>250</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="2"/>
-      <c r="B37" s="30"/>
-      <c r="C37" s="30"/>
+      <c r="B37" s="31"/>
+      <c r="C37" s="31"/>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="31" t="s">
+      <c r="A38" s="32" t="s">
         <v>139</v>
       </c>
-      <c r="B38" s="31" t="s">
-        <v>228</v>
-      </c>
-      <c r="C38" s="32"/>
-      <c r="D38" s="32"/>
+      <c r="B38" s="32" t="s">
+        <v>251</v>
+      </c>
+      <c r="C38" s="33"/>
+      <c r="D38" s="33"/>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B39" s="29" t="s">
-        <v>229</v>
-      </c>
-      <c r="C39" s="29" t="s">
-        <v>229</v>
+      <c r="B39" s="30" t="s">
+        <v>252</v>
+      </c>
+      <c r="C39" s="30" t="s">
+        <v>252</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="31" t="s">
+      <c r="A40" s="32" t="s">
         <v>147</v>
       </c>
-      <c r="B40" s="31" t="s">
-        <v>230</v>
-      </c>
-      <c r="C40" s="32"/>
-      <c r="D40" s="32"/>
+      <c r="B40" s="32" t="s">
+        <v>253</v>
+      </c>
+      <c r="C40" s="33"/>
+      <c r="D40" s="33"/>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B41" s="2" t="s">
-        <v>231</v>
+        <v>254</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>231</v>
+        <v>254</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="31" t="s">
+      <c r="A42" s="32" t="s">
         <v>153</v>
       </c>
-      <c r="B42" s="31" t="s">
-        <v>232</v>
-      </c>
-      <c r="C42" s="32"/>
-      <c r="D42" s="32"/>
+      <c r="B42" s="32" t="s">
+        <v>255</v>
+      </c>
+      <c r="C42" s="33"/>
+      <c r="D42" s="33"/>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B43" s="2" t="s">
-        <v>233</v>
+        <v>256</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>233</v>
+        <v>256</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="31" t="s">
+      <c r="A44" s="32" t="s">
         <v>157</v>
       </c>
-      <c r="B44" s="31" t="s">
-        <v>234</v>
-      </c>
-      <c r="C44" s="32"/>
-      <c r="D44" s="32"/>
+      <c r="B44" s="32" t="s">
+        <v>257</v>
+      </c>
+      <c r="C44" s="33"/>
+      <c r="D44" s="33"/>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B45" s="2" t="s">
-        <v>235</v>
+        <v>258</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>235</v>
+        <v>258</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="31" t="s">
+      <c r="A46" s="32" t="s">
         <v>157</v>
       </c>
-      <c r="B46" s="31" t="s">
-        <v>236</v>
-      </c>
-      <c r="C46" s="32"/>
-      <c r="D46" s="32"/>
+      <c r="B46" s="32" t="s">
+        <v>259</v>
+      </c>
+      <c r="C46" s="33"/>
+      <c r="D46" s="33"/>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B47" s="2" t="s">
-        <v>237</v>
+        <v>260</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>237</v>
+        <v>260</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="31" t="s">
+      <c r="A48" s="32" t="s">
         <v>162</v>
       </c>
-      <c r="B48" s="31" t="s">
-        <v>238</v>
-      </c>
-      <c r="C48" s="32"/>
-      <c r="D48" s="32"/>
+      <c r="B48" s="32" t="s">
+        <v>261</v>
+      </c>
+      <c r="C48" s="33"/>
+      <c r="D48" s="33"/>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B49" s="2" t="s">
-        <v>239</v>
+        <v>262</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>239</v>
+        <v>262</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="31" t="s">
+      <c r="A50" s="32" t="s">
         <v>166</v>
       </c>
-      <c r="B50" s="31" t="s">
-        <v>240</v>
-      </c>
-      <c r="C50" s="32"/>
-      <c r="D50" s="32"/>
+      <c r="B50" s="32" t="s">
+        <v>263</v>
+      </c>
+      <c r="C50" s="33"/>
+      <c r="D50" s="33"/>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B51" s="29" t="s">
-        <v>241</v>
-      </c>
-      <c r="C51" s="29" t="s">
-        <v>241</v>
+      <c r="B51" s="30" t="s">
+        <v>264</v>
+      </c>
+      <c r="C51" s="30" t="s">
+        <v>264</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="31" t="s">
+      <c r="A52" s="32" t="s">
         <v>177</v>
       </c>
-      <c r="B52" s="31" t="s">
-        <v>242</v>
-      </c>
-      <c r="C52" s="32"/>
-      <c r="D52" s="32"/>
+      <c r="B52" s="32" t="s">
+        <v>265</v>
+      </c>
+      <c r="C52" s="33"/>
+      <c r="D52" s="33"/>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B53" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="C53" s="33" t="s">
-        <v>243</v>
+      <c r="C53" s="34" t="s">
+        <v>266</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="31" t="s">
+      <c r="A54" s="32" t="s">
         <v>187</v>
       </c>
-      <c r="B54" s="31" t="s">
-        <v>244</v>
-      </c>
-      <c r="C54" s="32"/>
-      <c r="D54" s="32"/>
+      <c r="B54" s="32" t="s">
+        <v>267</v>
+      </c>
+      <c r="C54" s="33"/>
+      <c r="D54" s="33"/>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B55" s="2" t="s">
-        <v>245</v>
+        <v>268</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>245</v>
+        <v>268</v>
       </c>
     </row>
   </sheetData>
@@ -4593,34 +5274,34 @@
       <selection pane="topLeft" activeCell="H25" activeCellId="0" sqref="H25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.66796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="19.08"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="30.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="4" t="s">
-        <v>192</v>
-      </c>
-      <c r="B1" s="34" t="s">
-        <v>193</v>
+        <v>215</v>
+      </c>
+      <c r="B1" s="35" t="s">
+        <v>216</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>194</v>
+        <v>217</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>195</v>
+        <v>218</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="24" t="s">
+      <c r="A2" s="25" t="s">
         <v>80</v>
       </c>
-      <c r="B2" s="24" t="s">
-        <v>246</v>
-      </c>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25"/>
+      <c r="B2" s="25" t="s">
+        <v>269</v>
+      </c>
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="20"/>
@@ -4704,8 +5385,8 @@
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="20"/>
-      <c r="B13" s="35" t="s">
-        <v>247</v>
+      <c r="B13" s="36" t="s">
+        <v>270</v>
       </c>
       <c r="C13" s="20"/>
       <c r="D13" s="20"/>

--- a/TestCases/ZavrsniProjekat.xlsx
+++ b/TestCases/ZavrsniProjekat.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="TestCases" sheetId="1" state="visible" r:id="rId2"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="652" uniqueCount="271">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="670" uniqueCount="279">
   <si>
     <t xml:space="preserve">Test Case ID</t>
   </si>
@@ -1288,10 +1288,34 @@
     <t xml:space="preserve">You entered Vlada</t>
   </si>
   <si>
-    <t xml:space="preserve">Header of Chech Box page</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Check Box</t>
+    <t xml:space="preserve">Header of RadioButton</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Radio Button</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Elements Of RadioButtonPage</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Do you like the site?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Impressive</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Text Selected Yes Radio Button </t>
+  </si>
+  <si>
+    <t xml:space="preserve">You have selected Yes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">You have selected Impressive</t>
   </si>
   <si>
     <t xml:space="preserve">Invalid Email Address</t>
@@ -1308,7 +1332,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="@"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="9">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -1357,6 +1381,11 @@
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="6">
@@ -1432,7 +1461,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="38">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1573,6 +1602,10 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1660,10 +1693,10 @@
   </sheetPr>
   <dimension ref="A1:F233"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A206" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="D239" activeCellId="0" sqref="D239"/>
+      <selection pane="bottomLeft" activeCell="C241" activeCellId="0" sqref="C241"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4712,15 +4745,15 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D55"/>
+  <dimension ref="A1:D64"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="2" topLeftCell="A30" activePane="bottomLeft" state="frozen"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="2" topLeftCell="A48" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="B55" activeCellId="0" sqref="B55"/>
+      <selection pane="bottomLeft" activeCell="B76" activeCellId="0" sqref="B76"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.7421875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.7578125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="23" width="6.16"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="64.19"/>
@@ -5237,6 +5270,84 @@
       </c>
       <c r="C55" s="2" t="s">
         <v>268</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="32" t="s">
+        <v>191</v>
+      </c>
+      <c r="B56" s="32" t="s">
+        <v>269</v>
+      </c>
+      <c r="C56" s="33"/>
+      <c r="D56" s="33"/>
+    </row>
+    <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B57" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="C57" s="35" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B58" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B59" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B60" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="32" t="s">
+        <v>197</v>
+      </c>
+      <c r="B61" s="32" t="s">
+        <v>274</v>
+      </c>
+      <c r="C61" s="33"/>
+      <c r="D61" s="33"/>
+    </row>
+    <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B62" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A63" s="32" t="s">
+        <v>202</v>
+      </c>
+      <c r="B63" s="32" t="s">
+        <v>274</v>
+      </c>
+      <c r="C63" s="33"/>
+      <c r="D63" s="33"/>
+    </row>
+    <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B64" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="C64" s="35" t="s">
+        <v>276</v>
       </c>
     </row>
   </sheetData>
@@ -5274,7 +5385,7 @@
       <selection pane="topLeft" activeCell="H25" activeCellId="0" sqref="H25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.66796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.6875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="19.08"/>
   </cols>
@@ -5283,7 +5394,7 @@
       <c r="A1" s="4" t="s">
         <v>215</v>
       </c>
-      <c r="B1" s="35" t="s">
+      <c r="B1" s="36" t="s">
         <v>216</v>
       </c>
       <c r="C1" s="4" t="s">
@@ -5298,7 +5409,7 @@
         <v>80</v>
       </c>
       <c r="B2" s="25" t="s">
-        <v>269</v>
+        <v>277</v>
       </c>
       <c r="C2" s="26"/>
       <c r="D2" s="26"/>
@@ -5385,8 +5496,8 @@
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="20"/>
-      <c r="B13" s="36" t="s">
-        <v>270</v>
+      <c r="B13" s="37" t="s">
+        <v>278</v>
       </c>
       <c r="C13" s="20"/>
       <c r="D13" s="20"/>

--- a/TestCases/ZavrsniProjekat.xlsx
+++ b/TestCases/ZavrsniProjekat.xlsx
@@ -5,12 +5,14 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="TestCases" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="Test" sheetId="2" state="visible" r:id="rId3"/>
     <sheet name="Email" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="Bug Report1" sheetId="4" state="visible" r:id="rId5"/>
+    <sheet name="Bug Report2" sheetId="5" state="visible" r:id="rId6"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -22,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="670" uniqueCount="279">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="714" uniqueCount="293">
   <si>
     <t xml:space="preserve">Test Case ID</t>
   </si>
@@ -85,6 +87,9 @@
   </si>
   <si>
     <t xml:space="preserve">Text in the footer of the site is visible:© 2013-2021 TOOLSQA.COM | ALL RIGHTS RESERVED.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BUG Report</t>
   </si>
   <si>
     <t xml:space="preserve">TC_3</t>
@@ -261,7 +266,7 @@
     <t xml:space="preserve">Click on Submit button</t>
   </si>
   <si>
-    <t xml:space="preserve">Text appears, and it is visible at the bottom of page </t>
+    <t xml:space="preserve">The text appears, and it is visible at the bottom of page (Name: Vladimir ; Email:vlada@test.com ; Current Address :Decanska ;  Permanent  Address:Decanska)</t>
   </si>
   <si>
     <t xml:space="preserve">TC_12</t>
@@ -279,7 +284,7 @@
     <t xml:space="preserve">The “Email” field is filled and visible :v@t.rs</t>
   </si>
   <si>
-    <t xml:space="preserve">Text appears and it is visible at the bottom of page  Email:v@t.rss</t>
+    <t xml:space="preserve">The text appears and it is visible at the bottom of page  Email:v@t.rss</t>
   </si>
   <si>
     <t xml:space="preserve">v@t.com</t>
@@ -288,7 +293,7 @@
     <t xml:space="preserve">The “Email” field is filled and visible :v@t.com</t>
   </si>
   <si>
-    <t xml:space="preserve">Text appears and it is visible at the bottom of page Email:v@t.com</t>
+    <t xml:space="preserve">The text appears and it is visible at the bottom of page Email:v@t.com</t>
   </si>
   <si>
     <t xml:space="preserve">TC_13</t>
@@ -309,7 +314,7 @@
     <t xml:space="preserve">The “Email” field is filled and visible :@t.com</t>
   </si>
   <si>
-    <t xml:space="preserve">Text does not appear, and it is not visible at the bottom of page </t>
+    <t xml:space="preserve">The text does not appear, and it is not visible at the bottom of the page.</t>
   </si>
   <si>
     <t xml:space="preserve">Enter a invalid Email in the field “Email” special character before @</t>
@@ -879,7 +884,7 @@
     <t xml:space="preserve">TC_32</t>
   </si>
   <si>
-    <t xml:space="preserve">Verify that when a user clicks on the “Yes” radio button, the button is selected, and a text “You have selected Yes” appears underneath the radio buttons.</t>
+    <t xml:space="preserve">Verify that when a user clicks on the “Yes” radio button, the button is selected, and the text “You have selected Yes” appears underneath the radio buttons.</t>
   </si>
   <si>
     <t xml:space="preserve">No radio button is selected</t>
@@ -958,7 +963,7 @@
     <t xml:space="preserve">TC_33</t>
   </si>
   <si>
-    <t xml:space="preserve">Verify that when a user clicks on the “Impressive” radio button, the button is selected, and a text “You have selected Impressive” appears underneath the radio buttons.</t>
+    <t xml:space="preserve">Verify that when a user clicks on the “Impressive” radio button, the button is selected, and the text “You have selected Impressive” appears underneath the radio buttons.</t>
   </si>
   <si>
     <r>
@@ -1040,7 +1045,7 @@
     <t xml:space="preserve">Click on “No” radio button</t>
   </si>
   <si>
-    <t xml:space="preserve">The mouse pointer transforms into a restricted sign and the radio button can't be clicked.</t>
+    <t xml:space="preserve">The mouse pointer transforms into a restricted sign and, the radio button can't be clicked.</t>
   </si>
   <si>
     <t xml:space="preserve">TC_35</t>
@@ -1323,6 +1328,45 @@
   <si>
     <t xml:space="preserve">s@s .com</t>
   </si>
+  <si>
+    <t xml:space="preserve">Bug ID:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bug Name (Summary):</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The footer of the site has the wrong date</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Description:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">On the home page of the site, the footer has the wrong date written</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Steps To reproduce:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Expected result:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Actual result:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Text in the footer of the site is visible:© 2013-2020 TOOLSQA.COM | ALL RIGHTS RESERVED.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Screenshot:</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The text at bottom is misspelled</t>
+  </si>
+  <si>
+    <t xml:space="preserve">When a user enters a permanent address, the text output is misspelled "Permananet" instead of "permanent"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The text appears, and it is visible at the bottom of page (Name: Vladimir ; Email:vlada@test.com ; Current Address :Decanska ;  Permananet Address  Address:Decanska)</t>
+  </si>
 </sst>
 </file>
 
@@ -1332,7 +1376,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="@"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="16">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -1377,15 +1421,64 @@
     </font>
     <font>
       <sz val="10"/>
+      <color rgb="FFC9211E"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <color rgb="FFFFFFFF"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
+      <b val="true"/>
+      <sz val="14"/>
+      <name val="Calibri"/>
       <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="12"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="6">
@@ -1461,12 +1554,12 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="57">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1486,7 +1579,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1502,8 +1595,8 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -1534,6 +1627,10 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="165" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1546,6 +1643,10 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1555,6 +1656,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1594,15 +1699,11 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1612,6 +1713,74 @@
     </xf>
     <xf numFmtId="165" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -1677,7 +1846,7 @@
       <rgbColor rgb="FF339966"/>
       <rgbColor rgb="FF003300"/>
       <rgbColor rgb="FF333300"/>
-      <rgbColor rgb="FF993300"/>
+      <rgbColor rgb="FFC9211E"/>
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
       <rgbColor rgb="FF333333"/>
@@ -1686,17 +1855,101 @@
 </styleSheet>
 </file>
 
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>214560</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>253080</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>133200</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="0" name="Image 1" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId1"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="2800080"/>
+          <a:ext cx="7874640" cy="4325400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>563400</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>14400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1" name="Image 2" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId1"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1836360" y="3912120"/>
+          <a:ext cx="4788720" cy="3663720"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F233"/>
+  <dimension ref="A1:G234"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A206" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="C241" activeCellId="0" sqref="C241"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="topLeft" activeCell="E1" activeCellId="0" sqref="E1"/>
+      <selection pane="bottomLeft" activeCell="G1" activeCellId="0" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1833,6 +2086,9 @@
       <c r="F9" s="9" t="s">
         <v>20</v>
       </c>
+      <c r="G9" s="10" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="10" customFormat="false" ht="14.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="5"/>
@@ -1843,11 +2099,11 @@
       <c r="F10" s="5"/>
     </row>
     <row r="11" customFormat="false" ht="14.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="10" t="s">
-        <v>21</v>
+      <c r="A11" s="6" t="s">
+        <v>22</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C11" s="12"/>
       <c r="D11" s="7" t="s">
@@ -1859,7 +2115,7 @@
       </c>
     </row>
     <row r="12" customFormat="false" ht="14.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="10"/>
+      <c r="A12" s="6"/>
       <c r="B12" s="11"/>
       <c r="C12" s="12"/>
       <c r="D12" s="7" t="s">
@@ -1877,11 +2133,11 @@
       <c r="B13" s="13"/>
       <c r="C13" s="12"/>
       <c r="D13" s="7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E13" s="14"/>
       <c r="F13" s="7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="14.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1893,11 +2149,11 @@
       <c r="F14" s="5"/>
     </row>
     <row r="15" customFormat="false" ht="14.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A15" s="10" t="s">
-        <v>25</v>
+      <c r="A15" s="6" t="s">
+        <v>26</v>
       </c>
       <c r="B15" s="15" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C15" s="12"/>
       <c r="D15" s="7" t="s">
@@ -1927,11 +2183,11 @@
       <c r="B17" s="16"/>
       <c r="C17" s="12"/>
       <c r="D17" s="7" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E17" s="8"/>
       <c r="F17" s="9" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="14.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1943,11 +2199,11 @@
       <c r="F18" s="5"/>
     </row>
     <row r="19" customFormat="false" ht="14.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A19" s="10" t="s">
-        <v>29</v>
+      <c r="A19" s="6" t="s">
+        <v>30</v>
       </c>
       <c r="B19" s="15" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C19" s="12"/>
       <c r="D19" s="7" t="s">
@@ -1977,11 +2233,11 @@
       <c r="B21" s="7"/>
       <c r="C21" s="12"/>
       <c r="D21" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E21" s="14"/>
       <c r="F21" s="9" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="14.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1993,11 +2249,11 @@
       <c r="F22" s="5"/>
     </row>
     <row r="23" customFormat="false" ht="14.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A23" s="10" t="s">
-        <v>33</v>
+      <c r="A23" s="6" t="s">
+        <v>34</v>
       </c>
       <c r="B23" s="15" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C23" s="12"/>
       <c r="D23" s="7" t="s">
@@ -2027,11 +2283,11 @@
       <c r="B25" s="16"/>
       <c r="C25" s="12"/>
       <c r="D25" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E25" s="8"/>
       <c r="F25" s="9" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="14.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2043,11 +2299,11 @@
       <c r="F26" s="5"/>
     </row>
     <row r="27" customFormat="false" ht="14.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A27" s="10" t="s">
-        <v>37</v>
+      <c r="A27" s="6" t="s">
+        <v>38</v>
       </c>
       <c r="B27" s="15" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C27" s="12"/>
       <c r="D27" s="7" t="s">
@@ -2077,11 +2333,11 @@
       <c r="B29" s="7"/>
       <c r="C29" s="12"/>
       <c r="D29" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E29" s="14"/>
       <c r="F29" s="9" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="14.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2093,11 +2349,11 @@
       <c r="F30" s="5"/>
     </row>
     <row r="31" customFormat="false" ht="14.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A31" s="10" t="s">
-        <v>41</v>
+      <c r="A31" s="6" t="s">
+        <v>42</v>
       </c>
       <c r="B31" s="15" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C31" s="12"/>
       <c r="D31" s="7" t="s">
@@ -2127,11 +2383,11 @@
       <c r="B33" s="7"/>
       <c r="C33" s="12"/>
       <c r="D33" s="7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E33" s="14"/>
       <c r="F33" s="9" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="14.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2143,11 +2399,11 @@
       <c r="F34" s="5"/>
     </row>
     <row r="35" customFormat="false" ht="14.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A35" s="10" t="s">
-        <v>45</v>
+      <c r="A35" s="6" t="s">
+        <v>46</v>
       </c>
       <c r="B35" s="15" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C35" s="12"/>
       <c r="D35" s="7" t="s">
@@ -2177,16 +2433,16 @@
       <c r="B37" s="7"/>
       <c r="C37" s="12"/>
       <c r="D37" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E37" s="14"/>
       <c r="F37" s="9" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="14.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A38" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B38" s="5"/>
       <c r="C38" s="5"/>
@@ -2195,11 +2451,11 @@
       <c r="F38" s="5"/>
     </row>
     <row r="39" customFormat="false" ht="14.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A39" s="10" t="s">
-        <v>50</v>
+      <c r="A39" s="6" t="s">
+        <v>51</v>
       </c>
       <c r="B39" s="16" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C39" s="12"/>
       <c r="D39" s="7" t="s">
@@ -2229,11 +2485,11 @@
       <c r="B41" s="16"/>
       <c r="C41" s="12"/>
       <c r="D41" s="7" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E41" s="8"/>
       <c r="F41" s="9" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="14.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2241,11 +2497,11 @@
       <c r="B42" s="13"/>
       <c r="C42" s="12"/>
       <c r="D42" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E42" s="14"/>
       <c r="F42" s="9" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="14.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2257,11 +2513,11 @@
       <c r="F43" s="5"/>
     </row>
     <row r="44" customFormat="false" ht="14.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A44" s="10" t="s">
-        <v>55</v>
+      <c r="A44" s="6" t="s">
+        <v>56</v>
       </c>
       <c r="B44" s="15" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C44" s="12"/>
       <c r="D44" s="7" t="s">
@@ -2291,11 +2547,11 @@
       <c r="B46" s="7"/>
       <c r="C46" s="12"/>
       <c r="D46" s="7" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E46" s="14"/>
       <c r="F46" s="9" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="14.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2303,10 +2559,10 @@
       <c r="B47" s="7"/>
       <c r="C47" s="12"/>
       <c r="D47" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F47" s="9" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="14.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2314,13 +2570,13 @@
       <c r="B48" s="7"/>
       <c r="C48" s="12"/>
       <c r="D48" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E48" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F48" s="9" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="14.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2328,13 +2584,13 @@
       <c r="B49" s="7"/>
       <c r="C49" s="12"/>
       <c r="D49" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E49" s="8" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F49" s="9" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="14.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2342,13 +2598,13 @@
       <c r="B50" s="7"/>
       <c r="C50" s="12"/>
       <c r="D50" s="17" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E50" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F50" s="9" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="14.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2356,13 +2612,13 @@
       <c r="B51" s="7"/>
       <c r="C51" s="12"/>
       <c r="D51" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E51" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F51" s="9" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="14.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2370,91 +2626,92 @@
       <c r="B52" s="7"/>
       <c r="C52" s="12"/>
       <c r="D52" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E52" s="7"/>
-      <c r="F52" s="9" t="s">
-        <v>70</v>
+      <c r="F52" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="G52" s="18" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="14.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A53" s="5"/>
-      <c r="B53" s="5"/>
-      <c r="C53" s="5"/>
-      <c r="D53" s="5"/>
-      <c r="E53" s="5"/>
-      <c r="F53" s="5"/>
-    </row>
-    <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A54" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="B54" s="15" t="s">
+      <c r="A53" s="6"/>
+      <c r="B53" s="7"/>
+      <c r="C53" s="12"/>
+      <c r="D53" s="7"/>
+      <c r="E53" s="7"/>
+      <c r="F53" s="16"/>
+      <c r="G53" s="18"/>
+    </row>
+    <row r="54" customFormat="false" ht="14.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A54" s="5"/>
+      <c r="B54" s="5"/>
+      <c r="C54" s="5"/>
+      <c r="D54" s="5"/>
+      <c r="E54" s="5"/>
+      <c r="F54" s="5"/>
+    </row>
+    <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A55" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="C54" s="12"/>
-      <c r="D54" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="E54" s="7"/>
-      <c r="F54" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B55" s="15"/>
+      <c r="B55" s="15" t="s">
+        <v>73</v>
+      </c>
       <c r="C55" s="12"/>
       <c r="D55" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="E55" s="8" t="s">
-        <v>12</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="E55" s="7"/>
       <c r="F55" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B56" s="7"/>
+      <c r="B56" s="15"/>
       <c r="C56" s="12"/>
       <c r="D56" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="E56" s="18"/>
-      <c r="F56" s="9" t="s">
-        <v>28</v>
+        <v>11</v>
+      </c>
+      <c r="E56" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F56" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B57" s="7"/>
       <c r="C57" s="12"/>
       <c r="D57" s="7" t="s">
-        <v>57</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="E57" s="19"/>
       <c r="F57" s="9" t="s">
-        <v>73</v>
+        <v>29</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B58" s="7"/>
       <c r="C58" s="12"/>
       <c r="D58" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="E58" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="F58" s="9" t="s">
         <v>74</v>
-      </c>
-      <c r="F58" s="9" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B59" s="7"/>
       <c r="C59" s="12"/>
       <c r="D59" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="E59" s="8"/>
+        <v>62</v>
+      </c>
+      <c r="E59" s="8" t="s">
+        <v>75</v>
+      </c>
       <c r="F59" s="9" t="s">
         <v>76</v>
       </c>
@@ -2463,73 +2720,72 @@
       <c r="B60" s="7"/>
       <c r="C60" s="12"/>
       <c r="D60" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="E60" s="19" t="s">
+        <v>70</v>
+      </c>
+      <c r="E60" s="8"/>
+      <c r="F60" s="9" t="s">
         <v>77</v>
-      </c>
-      <c r="F60" s="9" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B61" s="7"/>
       <c r="C61" s="12"/>
       <c r="D61" s="7" t="s">
-        <v>69</v>
+        <v>62</v>
+      </c>
+      <c r="E61" s="20" t="s">
+        <v>78</v>
       </c>
       <c r="F61" s="9" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="62" customFormat="false" ht="14.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A62" s="5"/>
-      <c r="B62" s="5"/>
-      <c r="C62" s="5"/>
-      <c r="D62" s="5"/>
-      <c r="E62" s="5"/>
-      <c r="F62" s="5"/>
-    </row>
-    <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A63" s="6" t="s">
+    <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B62" s="7"/>
+      <c r="C62" s="12"/>
+      <c r="D62" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="F62" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="B63" s="15" t="s">
+    </row>
+    <row r="63" customFormat="false" ht="14.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A63" s="5"/>
+      <c r="B63" s="5"/>
+      <c r="C63" s="5"/>
+      <c r="D63" s="5"/>
+      <c r="E63" s="5"/>
+      <c r="F63" s="5"/>
+    </row>
+    <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A64" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="C63" s="12"/>
-      <c r="D63" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="E63" s="7"/>
-      <c r="F63" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="6"/>
-      <c r="B64" s="15"/>
+      <c r="B64" s="15" t="s">
+        <v>82</v>
+      </c>
       <c r="C64" s="12"/>
       <c r="D64" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="E64" s="8" t="s">
-        <v>12</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="E64" s="7"/>
       <c r="F64" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="6"/>
-      <c r="B65" s="7"/>
+      <c r="B65" s="15"/>
       <c r="C65" s="12"/>
       <c r="D65" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="E65" s="7"/>
-      <c r="F65" s="9" t="s">
-        <v>28</v>
+        <v>11</v>
+      </c>
+      <c r="E65" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F65" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2537,11 +2793,11 @@
       <c r="B66" s="7"/>
       <c r="C66" s="12"/>
       <c r="D66" s="7" t="s">
-        <v>82</v>
+        <v>28</v>
       </c>
       <c r="E66" s="7"/>
       <c r="F66" s="9" t="s">
-        <v>73</v>
+        <v>29</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2551,11 +2807,9 @@
       <c r="D67" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="E67" s="7" t="s">
-        <v>84</v>
-      </c>
+      <c r="E67" s="7"/>
       <c r="F67" s="9" t="s">
-        <v>85</v>
+        <v>74</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2563,9 +2817,11 @@
       <c r="B68" s="7"/>
       <c r="C68" s="12"/>
       <c r="D68" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="E68" s="7"/>
+        <v>84</v>
+      </c>
+      <c r="E68" s="7" t="s">
+        <v>85</v>
+      </c>
       <c r="F68" s="9" t="s">
         <v>86</v>
       </c>
@@ -2575,13 +2831,11 @@
       <c r="B69" s="7"/>
       <c r="C69" s="12"/>
       <c r="D69" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="E69" s="7"/>
+      <c r="F69" s="9" t="s">
         <v>87</v>
-      </c>
-      <c r="E69" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="F69" s="9" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2589,11 +2843,13 @@
       <c r="B70" s="7"/>
       <c r="C70" s="12"/>
       <c r="D70" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="E70" s="7"/>
+        <v>88</v>
+      </c>
+      <c r="E70" s="7" t="s">
+        <v>89</v>
+      </c>
       <c r="F70" s="9" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2601,13 +2857,11 @@
       <c r="B71" s="7"/>
       <c r="C71" s="12"/>
       <c r="D71" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="E71" s="7" t="s">
-        <v>91</v>
-      </c>
+        <v>70</v>
+      </c>
+      <c r="E71" s="7"/>
       <c r="F71" s="9" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2615,11 +2869,13 @@
       <c r="B72" s="7"/>
       <c r="C72" s="12"/>
       <c r="D72" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="E72" s="7"/>
+        <v>91</v>
+      </c>
+      <c r="E72" s="7" t="s">
+        <v>92</v>
+      </c>
       <c r="F72" s="9" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2627,25 +2883,25 @@
       <c r="B73" s="7"/>
       <c r="C73" s="12"/>
       <c r="D73" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="E73" s="7" t="s">
-        <v>94</v>
-      </c>
+        <v>70</v>
+      </c>
+      <c r="E73" s="7"/>
       <c r="F73" s="9" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="6"/>
       <c r="B74" s="7"/>
-      <c r="C74" s="7"/>
+      <c r="C74" s="12"/>
       <c r="D74" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="E74" s="7"/>
+        <v>94</v>
+      </c>
+      <c r="E74" s="7" t="s">
+        <v>95</v>
+      </c>
       <c r="F74" s="9" t="s">
-        <v>86</v>
+        <v>96</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2653,13 +2909,11 @@
       <c r="B75" s="7"/>
       <c r="C75" s="7"/>
       <c r="D75" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="E75" s="8" t="s">
-        <v>97</v>
-      </c>
+        <v>70</v>
+      </c>
+      <c r="E75" s="7"/>
       <c r="F75" s="9" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2667,11 +2921,13 @@
       <c r="B76" s="7"/>
       <c r="C76" s="7"/>
       <c r="D76" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="E76" s="7"/>
+        <v>97</v>
+      </c>
+      <c r="E76" s="8" t="s">
+        <v>98</v>
+      </c>
       <c r="F76" s="9" t="s">
-        <v>86</v>
+        <v>99</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2679,13 +2935,11 @@
       <c r="B77" s="7"/>
       <c r="C77" s="7"/>
       <c r="D77" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="E77" s="7" t="s">
-        <v>100</v>
-      </c>
+        <v>70</v>
+      </c>
+      <c r="E77" s="7"/>
       <c r="F77" s="9" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2693,11 +2947,13 @@
       <c r="B78" s="7"/>
       <c r="C78" s="7"/>
       <c r="D78" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="E78" s="7"/>
+        <v>100</v>
+      </c>
+      <c r="E78" s="7" t="s">
+        <v>101</v>
+      </c>
       <c r="F78" s="9" t="s">
-        <v>86</v>
+        <v>102</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2705,13 +2961,11 @@
       <c r="B79" s="7"/>
       <c r="C79" s="7"/>
       <c r="D79" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="E79" s="8" t="s">
-        <v>103</v>
-      </c>
+        <v>70</v>
+      </c>
+      <c r="E79" s="7"/>
       <c r="F79" s="9" t="s">
-        <v>104</v>
+        <v>87</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2719,11 +2973,13 @@
       <c r="B80" s="7"/>
       <c r="C80" s="7"/>
       <c r="D80" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="E80" s="7"/>
+        <v>103</v>
+      </c>
+      <c r="E80" s="8" t="s">
+        <v>104</v>
+      </c>
       <c r="F80" s="9" t="s">
-        <v>86</v>
+        <v>105</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2731,13 +2987,11 @@
       <c r="B81" s="7"/>
       <c r="C81" s="7"/>
       <c r="D81" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="E81" s="7" t="s">
-        <v>106</v>
-      </c>
+        <v>70</v>
+      </c>
+      <c r="E81" s="7"/>
       <c r="F81" s="9" t="s">
-        <v>107</v>
+        <v>87</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2745,11 +2999,13 @@
       <c r="B82" s="7"/>
       <c r="C82" s="7"/>
       <c r="D82" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="E82" s="7"/>
+        <v>106</v>
+      </c>
+      <c r="E82" s="7" t="s">
+        <v>107</v>
+      </c>
       <c r="F82" s="9" t="s">
-        <v>86</v>
+        <v>108</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2757,13 +3013,11 @@
       <c r="B83" s="7"/>
       <c r="C83" s="7"/>
       <c r="D83" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="E83" s="8" t="s">
-        <v>109</v>
-      </c>
+        <v>70</v>
+      </c>
+      <c r="E83" s="7"/>
       <c r="F83" s="9" t="s">
-        <v>110</v>
+        <v>87</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2771,11 +3025,13 @@
       <c r="B84" s="7"/>
       <c r="C84" s="7"/>
       <c r="D84" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="E84" s="7"/>
+        <v>109</v>
+      </c>
+      <c r="E84" s="8" t="s">
+        <v>110</v>
+      </c>
       <c r="F84" s="9" t="s">
-        <v>86</v>
+        <v>111</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2783,13 +3039,11 @@
       <c r="B85" s="7"/>
       <c r="C85" s="7"/>
       <c r="D85" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="E85" s="7" t="s">
-        <v>112</v>
-      </c>
+        <v>70</v>
+      </c>
+      <c r="E85" s="7"/>
       <c r="F85" s="9" t="s">
-        <v>113</v>
+        <v>87</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2797,11 +3051,13 @@
       <c r="B86" s="7"/>
       <c r="C86" s="7"/>
       <c r="D86" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="E86" s="7"/>
+        <v>112</v>
+      </c>
+      <c r="E86" s="7" t="s">
+        <v>113</v>
+      </c>
       <c r="F86" s="9" t="s">
-        <v>86</v>
+        <v>114</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2809,13 +3065,11 @@
       <c r="B87" s="7"/>
       <c r="C87" s="7"/>
       <c r="D87" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="E87" s="8" t="s">
-        <v>115</v>
-      </c>
+        <v>70</v>
+      </c>
+      <c r="E87" s="7"/>
       <c r="F87" s="9" t="s">
-        <v>116</v>
+        <v>87</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2823,1800 +3077,1814 @@
       <c r="B88" s="7"/>
       <c r="C88" s="7"/>
       <c r="D88" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="E88" s="7"/>
+        <v>115</v>
+      </c>
+      <c r="E88" s="8" t="s">
+        <v>116</v>
+      </c>
       <c r="F88" s="9" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="89" customFormat="false" ht="14.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A89" s="5"/>
-      <c r="B89" s="5"/>
-      <c r="C89" s="5"/>
-      <c r="D89" s="5"/>
-      <c r="E89" s="5"/>
-      <c r="F89" s="5"/>
-    </row>
-    <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A90" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="B90" s="16" t="s">
+    </row>
+    <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A89" s="6"/>
+      <c r="B89" s="7"/>
+      <c r="C89" s="7"/>
+      <c r="D89" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="E89" s="7"/>
+      <c r="F89" s="9" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="90" customFormat="false" ht="14.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A90" s="5"/>
+      <c r="B90" s="5"/>
+      <c r="C90" s="5"/>
+      <c r="D90" s="5"/>
+      <c r="E90" s="5"/>
+      <c r="F90" s="5"/>
+    </row>
+    <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A91" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="C90" s="12"/>
-      <c r="D90" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="E90" s="7"/>
-      <c r="F90" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B91" s="15"/>
+      <c r="B91" s="16" t="s">
+        <v>119</v>
+      </c>
       <c r="C91" s="12"/>
       <c r="D91" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="E91" s="8" t="s">
-        <v>12</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="E91" s="7"/>
       <c r="F91" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B92" s="7"/>
+      <c r="B92" s="15"/>
       <c r="C92" s="12"/>
       <c r="D92" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="E92" s="18"/>
-      <c r="F92" s="9" t="s">
-        <v>52</v>
+        <v>11</v>
+      </c>
+      <c r="E92" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F92" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B93" s="7"/>
       <c r="C93" s="12"/>
       <c r="D93" s="7" t="s">
-        <v>57</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="E93" s="19"/>
       <c r="F93" s="9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B94" s="7"/>
       <c r="C94" s="12"/>
       <c r="D94" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="E94" s="8"/>
+        <v>58</v>
+      </c>
       <c r="F94" s="9" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="95" customFormat="false" ht="14.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A95" s="5" t="s">
-        <v>119</v>
-      </c>
-      <c r="B95" s="5"/>
-      <c r="C95" s="5"/>
-      <c r="D95" s="5"/>
-      <c r="E95" s="5"/>
-      <c r="F95" s="5"/>
+        <v>55</v>
+      </c>
+    </row>
+    <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B95" s="7"/>
+      <c r="C95" s="12"/>
+      <c r="D95" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="E95" s="8"/>
+      <c r="F95" s="9" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="96" customFormat="false" ht="14.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A96" s="6" t="s">
+      <c r="A96" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="B96" s="15" t="s">
+      <c r="B96" s="5"/>
+      <c r="C96" s="5"/>
+      <c r="D96" s="5"/>
+      <c r="E96" s="5"/>
+      <c r="F96" s="5"/>
+    </row>
+    <row r="97" customFormat="false" ht="14.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A97" s="6" t="s">
         <v>121</v>
       </c>
-      <c r="C96" s="20"/>
-      <c r="D96" s="7" t="s">
+      <c r="B97" s="15" t="s">
+        <v>122</v>
+      </c>
+      <c r="C97" s="21"/>
+      <c r="D97" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="E96" s="20"/>
-      <c r="F96" s="7" t="s">
+      <c r="E97" s="21"/>
+      <c r="F97" s="7" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="97" customFormat="false" ht="14.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A97" s="20"/>
-      <c r="B97" s="15"/>
-      <c r="C97" s="20"/>
-      <c r="D97" s="7" t="s">
+    <row r="98" customFormat="false" ht="14.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A98" s="22"/>
+      <c r="B98" s="15"/>
+      <c r="C98" s="21"/>
+      <c r="D98" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="E97" s="8" t="s">
+      <c r="E98" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="F97" s="7" t="s">
+      <c r="F98" s="7" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="98" customFormat="false" ht="14.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A98" s="20"/>
-      <c r="B98" s="20"/>
-      <c r="C98" s="20"/>
-      <c r="D98" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="E98" s="20"/>
-      <c r="F98" s="9" t="s">
+    <row r="99" customFormat="false" ht="14.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A99" s="22"/>
+      <c r="B99" s="21"/>
+      <c r="C99" s="21"/>
+      <c r="D99" s="7" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="99" customFormat="false" ht="14.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A99" s="20"/>
-      <c r="B99" s="20"/>
-      <c r="C99" s="20"/>
-      <c r="D99" s="7" t="s">
+      <c r="E99" s="21"/>
+      <c r="F99" s="9" t="s">
         <v>124</v>
       </c>
-      <c r="E99" s="20"/>
-      <c r="F99" s="9" t="s">
+    </row>
+    <row r="100" customFormat="false" ht="14.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A100" s="22"/>
+      <c r="B100" s="21"/>
+      <c r="C100" s="21"/>
+      <c r="D100" s="7" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="100" customFormat="false" ht="14.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A100" s="5"/>
-      <c r="B100" s="5"/>
-      <c r="C100" s="5"/>
-      <c r="D100" s="5"/>
-      <c r="E100" s="5"/>
-      <c r="F100" s="5"/>
+      <c r="E100" s="21"/>
+      <c r="F100" s="9" t="s">
+        <v>126</v>
+      </c>
     </row>
     <row r="101" customFormat="false" ht="14.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A101" s="6" t="s">
+      <c r="A101" s="5"/>
+      <c r="B101" s="5"/>
+      <c r="C101" s="5"/>
+      <c r="D101" s="5"/>
+      <c r="E101" s="5"/>
+      <c r="F101" s="5"/>
+    </row>
+    <row r="102" customFormat="false" ht="14.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A102" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="B102" s="15" t="s">
+        <v>128</v>
+      </c>
+      <c r="C102" s="21"/>
+      <c r="D102" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E102" s="21"/>
+      <c r="F102" s="7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="103" customFormat="false" ht="14.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A103" s="22"/>
+      <c r="B103" s="15"/>
+      <c r="C103" s="21"/>
+      <c r="D103" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E103" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F103" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="104" customFormat="false" ht="14.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A104" s="22"/>
+      <c r="B104" s="21"/>
+      <c r="C104" s="21"/>
+      <c r="D104" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="E104" s="21"/>
+      <c r="F104" s="9" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="105" customFormat="false" ht="14.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A105" s="22"/>
+      <c r="B105" s="21"/>
+      <c r="C105" s="21"/>
+      <c r="D105" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="E105" s="21"/>
+      <c r="F105" s="9" t="s">
         <v>126</v>
       </c>
-      <c r="B101" s="15" t="s">
-        <v>127</v>
-      </c>
-      <c r="C101" s="20"/>
-      <c r="D101" s="7" t="s">
+    </row>
+    <row r="106" customFormat="false" ht="14.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A106" s="22"/>
+      <c r="B106" s="21"/>
+      <c r="C106" s="21"/>
+      <c r="D106" s="21" t="s">
+        <v>129</v>
+      </c>
+      <c r="E106" s="21"/>
+      <c r="F106" s="7" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A107" s="5"/>
+      <c r="B107" s="5"/>
+      <c r="C107" s="5"/>
+      <c r="D107" s="5"/>
+      <c r="E107" s="5"/>
+      <c r="F107" s="5"/>
+    </row>
+    <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A108" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="B108" s="15" t="s">
+        <v>132</v>
+      </c>
+      <c r="C108" s="21"/>
+      <c r="D108" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="E101" s="20"/>
-      <c r="F101" s="7" t="s">
+      <c r="E108" s="21"/>
+      <c r="F108" s="7" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="102" customFormat="false" ht="14.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A102" s="20"/>
-      <c r="B102" s="15"/>
-      <c r="C102" s="20"/>
-      <c r="D102" s="7" t="s">
+    <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A109" s="22"/>
+      <c r="B109" s="15"/>
+      <c r="C109" s="21"/>
+      <c r="D109" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="E102" s="8" t="s">
+      <c r="E109" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="F102" s="7" t="s">
+      <c r="F109" s="7" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="103" customFormat="false" ht="14.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A103" s="20"/>
-      <c r="B103" s="20"/>
-      <c r="C103" s="20"/>
-      <c r="D103" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="E103" s="20"/>
-      <c r="F103" s="9" t="s">
+    <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A110" s="22"/>
+      <c r="B110" s="21"/>
+      <c r="C110" s="21"/>
+      <c r="D110" s="7" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="104" customFormat="false" ht="14.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A104" s="20"/>
-      <c r="B104" s="20"/>
-      <c r="C104" s="20"/>
-      <c r="D104" s="7" t="s">
+      <c r="E110" s="21"/>
+      <c r="F110" s="9" t="s">
         <v>124</v>
       </c>
-      <c r="E104" s="20"/>
-      <c r="F104" s="9" t="s">
+    </row>
+    <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A111" s="22"/>
+      <c r="B111" s="21"/>
+      <c r="C111" s="21"/>
+      <c r="D111" s="7" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="105" customFormat="false" ht="14.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A105" s="20"/>
-      <c r="B105" s="20"/>
-      <c r="C105" s="20"/>
-      <c r="D105" s="20" t="s">
-        <v>128</v>
-      </c>
-      <c r="E105" s="20"/>
-      <c r="F105" s="20" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A106" s="5"/>
-      <c r="B106" s="5"/>
-      <c r="C106" s="5"/>
-      <c r="D106" s="5"/>
-      <c r="E106" s="5"/>
-      <c r="F106" s="5"/>
-    </row>
-    <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A107" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="B107" s="15" t="s">
-        <v>131</v>
-      </c>
-      <c r="C107" s="20"/>
-      <c r="D107" s="7" t="s">
+      <c r="E111" s="21"/>
+      <c r="F111" s="9" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A112" s="22"/>
+      <c r="B112" s="21"/>
+      <c r="C112" s="21"/>
+      <c r="D112" s="21" t="s">
+        <v>133</v>
+      </c>
+      <c r="E112" s="21"/>
+      <c r="F112" s="7" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A113" s="5"/>
+      <c r="B113" s="5"/>
+      <c r="C113" s="5"/>
+      <c r="D113" s="5"/>
+      <c r="E113" s="5"/>
+      <c r="F113" s="5"/>
+    </row>
+    <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A114" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="B114" s="15" t="s">
+        <v>136</v>
+      </c>
+      <c r="C114" s="21"/>
+      <c r="D114" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="E107" s="20"/>
-      <c r="F107" s="7" t="s">
+      <c r="E114" s="21"/>
+      <c r="F114" s="7" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A108" s="20"/>
-      <c r="B108" s="15"/>
-      <c r="C108" s="20"/>
-      <c r="D108" s="7" t="s">
+    <row r="115" customFormat="false" ht="14.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A115" s="22"/>
+      <c r="B115" s="15"/>
+      <c r="C115" s="21"/>
+      <c r="D115" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="E108" s="8" t="s">
+      <c r="E115" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="F108" s="7" t="s">
+      <c r="F115" s="7" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A109" s="20"/>
-      <c r="B109" s="20"/>
-      <c r="C109" s="20"/>
-      <c r="D109" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="E109" s="20"/>
-      <c r="F109" s="9" t="s">
+    <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A116" s="22"/>
+      <c r="B116" s="21"/>
+      <c r="C116" s="21"/>
+      <c r="D116" s="7" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A110" s="20"/>
-      <c r="B110" s="20"/>
-      <c r="C110" s="20"/>
-      <c r="D110" s="7" t="s">
+      <c r="E116" s="21"/>
+      <c r="F116" s="9" t="s">
         <v>124</v>
       </c>
-      <c r="E110" s="20"/>
-      <c r="F110" s="9" t="s">
+    </row>
+    <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A117" s="22"/>
+      <c r="B117" s="21"/>
+      <c r="C117" s="21"/>
+      <c r="D117" s="7" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A111" s="20"/>
-      <c r="B111" s="20"/>
-      <c r="C111" s="20"/>
-      <c r="D111" s="20" t="s">
-        <v>132</v>
-      </c>
-      <c r="E111" s="20"/>
-      <c r="F111" s="20" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A112" s="5"/>
-      <c r="B112" s="5"/>
-      <c r="C112" s="5"/>
-      <c r="D112" s="5"/>
-      <c r="E112" s="5"/>
-      <c r="F112" s="5"/>
-    </row>
-    <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A113" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="B113" s="15" t="s">
-        <v>135</v>
-      </c>
-      <c r="C113" s="20"/>
-      <c r="D113" s="7" t="s">
+      <c r="E117" s="21"/>
+      <c r="F117" s="9" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A118" s="22"/>
+      <c r="B118" s="21"/>
+      <c r="C118" s="21"/>
+      <c r="D118" s="21" t="s">
+        <v>137</v>
+      </c>
+      <c r="E118" s="21"/>
+      <c r="F118" s="7" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A119" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="B119" s="5"/>
+      <c r="C119" s="5"/>
+      <c r="D119" s="5"/>
+      <c r="E119" s="5"/>
+      <c r="F119" s="5"/>
+    </row>
+    <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A120" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="B120" s="15" t="s">
+        <v>141</v>
+      </c>
+      <c r="C120" s="21"/>
+      <c r="D120" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="E113" s="20"/>
-      <c r="F113" s="7" t="s">
+      <c r="E120" s="21"/>
+      <c r="F120" s="7" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="114" customFormat="false" ht="14.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A114" s="20"/>
-      <c r="B114" s="15"/>
-      <c r="C114" s="20"/>
-      <c r="D114" s="7" t="s">
+    <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A121" s="22"/>
+      <c r="B121" s="15"/>
+      <c r="C121" s="21"/>
+      <c r="D121" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="E114" s="8" t="s">
+      <c r="E121" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="F114" s="7" t="s">
+      <c r="F121" s="7" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A115" s="20"/>
-      <c r="B115" s="20"/>
-      <c r="C115" s="20"/>
-      <c r="D115" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="E115" s="20"/>
-      <c r="F115" s="9" t="s">
+    <row r="122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A122" s="22"/>
+      <c r="B122" s="21"/>
+      <c r="C122" s="21"/>
+      <c r="D122" s="7" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A116" s="20"/>
-      <c r="B116" s="20"/>
-      <c r="C116" s="20"/>
-      <c r="D116" s="7" t="s">
+      <c r="E122" s="21"/>
+      <c r="F122" s="9" t="s">
         <v>124</v>
       </c>
-      <c r="E116" s="20"/>
-      <c r="F116" s="9" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A117" s="20"/>
-      <c r="B117" s="20"/>
-      <c r="C117" s="20"/>
-      <c r="D117" s="20" t="s">
-        <v>136</v>
-      </c>
-      <c r="E117" s="20"/>
-      <c r="F117" s="7" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A118" s="5" t="s">
-        <v>138</v>
-      </c>
-      <c r="B118" s="5"/>
-      <c r="C118" s="5"/>
-      <c r="D118" s="5"/>
-      <c r="E118" s="5"/>
-      <c r="F118" s="5"/>
-    </row>
-    <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A119" s="6" t="s">
-        <v>139</v>
-      </c>
-      <c r="B119" s="15" t="s">
-        <v>140</v>
-      </c>
-      <c r="C119" s="20"/>
-      <c r="D119" s="7" t="s">
+    </row>
+    <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A123" s="22"/>
+      <c r="B123" s="21"/>
+      <c r="C123" s="21"/>
+      <c r="D123" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="E123" s="21"/>
+      <c r="F123" s="9" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A124" s="5"/>
+      <c r="B124" s="5"/>
+      <c r="C124" s="5"/>
+      <c r="D124" s="5"/>
+      <c r="E124" s="5"/>
+      <c r="F124" s="5"/>
+    </row>
+    <row r="125" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A125" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="B125" s="15" t="s">
+        <v>145</v>
+      </c>
+      <c r="C125" s="21"/>
+      <c r="D125" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="E119" s="20"/>
-      <c r="F119" s="7" t="s">
+      <c r="E125" s="21"/>
+      <c r="F125" s="7" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A120" s="20"/>
-      <c r="B120" s="15"/>
-      <c r="C120" s="20"/>
-      <c r="D120" s="7" t="s">
+    <row r="126" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A126" s="22"/>
+      <c r="B126" s="15"/>
+      <c r="C126" s="21"/>
+      <c r="D126" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="E120" s="8" t="s">
+      <c r="E126" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="F120" s="7" t="s">
+      <c r="F126" s="7" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A121" s="20"/>
-      <c r="B121" s="20"/>
-      <c r="C121" s="20"/>
-      <c r="D121" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="E121" s="20"/>
-      <c r="F121" s="9" t="s">
+    <row r="127" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A127" s="22"/>
+      <c r="B127" s="21"/>
+      <c r="C127" s="21"/>
+      <c r="D127" s="7" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A122" s="20"/>
-      <c r="B122" s="20"/>
-      <c r="C122" s="20"/>
-      <c r="D122" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="E122" s="20"/>
-      <c r="F122" s="9" t="s">
+      <c r="E127" s="21"/>
+      <c r="F127" s="9" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="128" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A128" s="22"/>
+      <c r="B128" s="21"/>
+      <c r="C128" s="21"/>
+      <c r="D128" s="7" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A123" s="5"/>
-      <c r="B123" s="5"/>
-      <c r="C123" s="5"/>
-      <c r="D123" s="5"/>
-      <c r="E123" s="5"/>
-      <c r="F123" s="5"/>
-    </row>
-    <row r="124" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A124" s="6" t="s">
+      <c r="E128" s="21"/>
+      <c r="F128" s="9" t="s">
         <v>143</v>
       </c>
-      <c r="B124" s="15" t="s">
-        <v>144</v>
-      </c>
-      <c r="C124" s="20"/>
-      <c r="D124" s="7" t="s">
+    </row>
+    <row r="129" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A129" s="22"/>
+      <c r="B129" s="21"/>
+      <c r="C129" s="21"/>
+      <c r="D129" s="21" t="s">
+        <v>146</v>
+      </c>
+      <c r="E129" s="21"/>
+      <c r="F129" s="7" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="130" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A130" s="5"/>
+      <c r="B130" s="5"/>
+      <c r="C130" s="5"/>
+      <c r="D130" s="5"/>
+      <c r="E130" s="5"/>
+      <c r="F130" s="5"/>
+    </row>
+    <row r="131" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A131" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="B131" s="15" t="s">
+        <v>149</v>
+      </c>
+      <c r="C131" s="21"/>
+      <c r="D131" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="E124" s="20"/>
-      <c r="F124" s="7" t="s">
+      <c r="E131" s="21"/>
+      <c r="F131" s="7" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="125" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A125" s="20"/>
-      <c r="B125" s="15"/>
-      <c r="C125" s="20"/>
-      <c r="D125" s="7" t="s">
+    <row r="132" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A132" s="22"/>
+      <c r="B132" s="15"/>
+      <c r="C132" s="21"/>
+      <c r="D132" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="E125" s="8" t="s">
+      <c r="E132" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="F125" s="7" t="s">
+      <c r="F132" s="7" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="126" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A126" s="20"/>
-      <c r="B126" s="20"/>
-      <c r="C126" s="20"/>
-      <c r="D126" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="E126" s="20"/>
-      <c r="F126" s="9" t="s">
+    <row r="133" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A133" s="22"/>
+      <c r="B133" s="21"/>
+      <c r="C133" s="21"/>
+      <c r="D133" s="7" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="127" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A127" s="20"/>
-      <c r="B127" s="20"/>
-      <c r="C127" s="20"/>
-      <c r="D127" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="E127" s="20"/>
-      <c r="F127" s="9" t="s">
+      <c r="E133" s="21"/>
+      <c r="F133" s="9" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="134" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A134" s="22"/>
+      <c r="B134" s="21"/>
+      <c r="C134" s="21"/>
+      <c r="D134" s="7" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="128" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A128" s="20"/>
-      <c r="B128" s="20"/>
-      <c r="C128" s="20"/>
-      <c r="D128" s="20" t="s">
-        <v>145</v>
-      </c>
-      <c r="E128" s="20"/>
-      <c r="F128" s="20" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="129" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A129" s="5"/>
-      <c r="B129" s="5"/>
-      <c r="C129" s="5"/>
-      <c r="D129" s="5"/>
-      <c r="E129" s="5"/>
-      <c r="F129" s="5"/>
-    </row>
-    <row r="130" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A130" s="6" t="s">
-        <v>147</v>
-      </c>
-      <c r="B130" s="15" t="s">
-        <v>148</v>
-      </c>
-      <c r="C130" s="20"/>
-      <c r="D130" s="7" t="s">
+      <c r="E134" s="21"/>
+      <c r="F134" s="9" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="135" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A135" s="22"/>
+      <c r="B135" s="21"/>
+      <c r="C135" s="21"/>
+      <c r="D135" s="21" t="s">
+        <v>150</v>
+      </c>
+      <c r="E135" s="21"/>
+      <c r="F135" s="7" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="136" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A136" s="22"/>
+      <c r="B136" s="21"/>
+      <c r="C136" s="21"/>
+      <c r="D136" s="21" t="s">
+        <v>152</v>
+      </c>
+      <c r="E136" s="21"/>
+      <c r="F136" s="7" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="137" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A137" s="5"/>
+      <c r="B137" s="5"/>
+      <c r="C137" s="5"/>
+      <c r="D137" s="5"/>
+      <c r="E137" s="5"/>
+      <c r="F137" s="5"/>
+    </row>
+    <row r="138" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A138" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="B138" s="15" t="s">
+        <v>155</v>
+      </c>
+      <c r="C138" s="21"/>
+      <c r="D138" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="E130" s="20"/>
-      <c r="F130" s="7" t="s">
+      <c r="E138" s="21"/>
+      <c r="F138" s="7" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="131" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A131" s="20"/>
-      <c r="B131" s="15"/>
-      <c r="C131" s="20"/>
-      <c r="D131" s="7" t="s">
+    <row r="139" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A139" s="22"/>
+      <c r="B139" s="15"/>
+      <c r="C139" s="21"/>
+      <c r="D139" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="E131" s="8" t="s">
+      <c r="E139" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="F131" s="7" t="s">
+      <c r="F139" s="7" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="132" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A132" s="20"/>
-      <c r="B132" s="20"/>
-      <c r="C132" s="20"/>
-      <c r="D132" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="E132" s="20"/>
-      <c r="F132" s="9" t="s">
+    <row r="140" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A140" s="22"/>
+      <c r="B140" s="15"/>
+      <c r="C140" s="21"/>
+      <c r="D140" s="7" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="133" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A133" s="20"/>
-      <c r="B133" s="20"/>
-      <c r="C133" s="20"/>
-      <c r="D133" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="E133" s="20"/>
-      <c r="F133" s="9" t="s">
+      <c r="E140" s="21"/>
+      <c r="F140" s="9" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="141" customFormat="false" ht="14.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A141" s="22"/>
+      <c r="B141" s="15"/>
+      <c r="C141" s="21"/>
+      <c r="D141" s="7" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="134" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A134" s="20"/>
-      <c r="B134" s="20"/>
-      <c r="C134" s="20"/>
-      <c r="D134" s="20" t="s">
-        <v>149</v>
-      </c>
-      <c r="E134" s="20"/>
-      <c r="F134" s="20" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="135" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A135" s="20"/>
-      <c r="B135" s="20"/>
-      <c r="C135" s="20"/>
-      <c r="D135" s="20" t="s">
-        <v>151</v>
-      </c>
-      <c r="E135" s="20"/>
-      <c r="F135" s="20" t="s">
+      <c r="E141" s="21"/>
+      <c r="F141" s="9" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="142" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A142" s="22"/>
+      <c r="B142" s="21"/>
+      <c r="C142" s="21"/>
+      <c r="D142" s="13" t="s">
+        <v>156</v>
+      </c>
+      <c r="E142" s="21"/>
+      <c r="F142" s="12" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="143" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A143" s="22"/>
+      <c r="B143" s="21"/>
+      <c r="C143" s="21"/>
+      <c r="D143" s="21" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="136" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A136" s="5"/>
-      <c r="B136" s="5"/>
-      <c r="C136" s="5"/>
-      <c r="D136" s="5"/>
-      <c r="E136" s="5"/>
-      <c r="F136" s="5"/>
-    </row>
-    <row r="137" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A137" s="6" t="s">
+      <c r="E143" s="21"/>
+      <c r="F143" s="7" t="s">
         <v>153</v>
       </c>
-      <c r="B137" s="15" t="s">
-        <v>154</v>
-      </c>
-      <c r="C137" s="20"/>
-      <c r="D137" s="7" t="s">
+    </row>
+    <row r="144" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A144" s="5"/>
+      <c r="B144" s="5"/>
+      <c r="C144" s="5"/>
+      <c r="D144" s="5"/>
+      <c r="E144" s="5"/>
+      <c r="F144" s="5"/>
+    </row>
+    <row r="145" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A145" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="B145" s="15" t="s">
+        <v>159</v>
+      </c>
+      <c r="C145" s="21"/>
+      <c r="D145" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="E137" s="20"/>
-      <c r="F137" s="7" t="s">
+      <c r="E145" s="21"/>
+      <c r="F145" s="7" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="138" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A138" s="20"/>
-      <c r="B138" s="15"/>
-      <c r="C138" s="20"/>
-      <c r="D138" s="7" t="s">
+    <row r="146" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A146" s="22"/>
+      <c r="B146" s="15"/>
+      <c r="C146" s="21"/>
+      <c r="D146" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="E138" s="8" t="s">
+      <c r="E146" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="F138" s="7" t="s">
+      <c r="F146" s="7" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="139" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A139" s="20"/>
-      <c r="B139" s="15"/>
-      <c r="C139" s="20"/>
-      <c r="D139" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="E139" s="20"/>
-      <c r="F139" s="9" t="s">
+    <row r="147" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A147" s="22"/>
+      <c r="B147" s="15"/>
+      <c r="C147" s="21"/>
+      <c r="D147" s="7" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="140" customFormat="false" ht="14.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A140" s="20"/>
-      <c r="B140" s="15"/>
-      <c r="C140" s="20"/>
-      <c r="D140" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="E140" s="20"/>
-      <c r="F140" s="9" t="s">
+      <c r="E147" s="21"/>
+      <c r="F147" s="9" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="148" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A148" s="22"/>
+      <c r="B148" s="15"/>
+      <c r="C148" s="21"/>
+      <c r="D148" s="7" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="141" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A141" s="20"/>
-      <c r="B141" s="20"/>
-      <c r="C141" s="20"/>
-      <c r="D141" s="13" t="s">
-        <v>155</v>
-      </c>
-      <c r="E141" s="20"/>
-      <c r="F141" s="12" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="142" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A142" s="20"/>
-      <c r="B142" s="20"/>
-      <c r="C142" s="20"/>
-      <c r="D142" s="20" t="s">
-        <v>151</v>
-      </c>
-      <c r="E142" s="20"/>
-      <c r="F142" s="20" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="143" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A143" s="5"/>
-      <c r="B143" s="5"/>
-      <c r="C143" s="5"/>
-      <c r="D143" s="5"/>
-      <c r="E143" s="5"/>
-      <c r="F143" s="5"/>
-    </row>
-    <row r="144" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A144" s="6" t="s">
-        <v>157</v>
-      </c>
-      <c r="B144" s="15" t="s">
-        <v>158</v>
-      </c>
-      <c r="C144" s="20"/>
-      <c r="D144" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="E144" s="20"/>
-      <c r="F144" s="7" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="145" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A145" s="20"/>
-      <c r="B145" s="15"/>
-      <c r="C145" s="20"/>
-      <c r="D145" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="E145" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="F145" s="7" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="146" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A146" s="20"/>
-      <c r="B146" s="15"/>
-      <c r="C146" s="20"/>
-      <c r="D146" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="E146" s="20"/>
-      <c r="F146" s="9" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="147" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A147" s="20"/>
-      <c r="B147" s="15"/>
-      <c r="C147" s="20"/>
-      <c r="D147" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="E147" s="20"/>
-      <c r="F147" s="9" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="148" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A148" s="20"/>
-      <c r="B148" s="20"/>
-      <c r="C148" s="20"/>
-      <c r="D148" s="13" t="s">
-        <v>159</v>
-      </c>
-      <c r="E148" s="20"/>
-      <c r="F148" s="12" t="s">
+      <c r="E148" s="21"/>
+      <c r="F148" s="9" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="149" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A149" s="22"/>
+      <c r="B149" s="21"/>
+      <c r="C149" s="21"/>
+      <c r="D149" s="13" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="149" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A149" s="20"/>
-      <c r="B149" s="20"/>
-      <c r="C149" s="20"/>
-      <c r="D149" s="20" t="s">
-        <v>151</v>
-      </c>
-      <c r="E149" s="20"/>
+      <c r="E149" s="21"/>
       <c r="F149" s="12" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="150" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A150" s="6"/>
-      <c r="B150" s="7"/>
-      <c r="C150" s="7"/>
-      <c r="D150" s="7"/>
-      <c r="E150" s="7"/>
-      <c r="F150" s="12"/>
+    <row r="150" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A150" s="22"/>
+      <c r="B150" s="21"/>
+      <c r="C150" s="21"/>
+      <c r="D150" s="21" t="s">
+        <v>152</v>
+      </c>
+      <c r="E150" s="21"/>
+      <c r="F150" s="12" t="s">
+        <v>162</v>
+      </c>
     </row>
     <row r="151" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A151" s="5"/>
-      <c r="B151" s="5"/>
-      <c r="C151" s="5"/>
-      <c r="D151" s="5"/>
-      <c r="E151" s="5"/>
-      <c r="F151" s="5"/>
-    </row>
-    <row r="152" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A152" s="6" t="s">
-        <v>162</v>
-      </c>
-      <c r="B152" s="15" t="s">
+      <c r="A151" s="6"/>
+      <c r="B151" s="7"/>
+      <c r="C151" s="7"/>
+      <c r="D151" s="7"/>
+      <c r="E151" s="7"/>
+      <c r="F151" s="12"/>
+    </row>
+    <row r="152" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A152" s="5"/>
+      <c r="B152" s="5"/>
+      <c r="C152" s="5"/>
+      <c r="D152" s="5"/>
+      <c r="E152" s="5"/>
+      <c r="F152" s="5"/>
+    </row>
+    <row r="153" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A153" s="6" t="s">
         <v>163</v>
       </c>
-      <c r="C152" s="20"/>
-      <c r="D152" s="7" t="s">
+      <c r="B153" s="15" t="s">
+        <v>164</v>
+      </c>
+      <c r="C153" s="21"/>
+      <c r="D153" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="E152" s="20"/>
-      <c r="F152" s="7" t="s">
+      <c r="E153" s="21"/>
+      <c r="F153" s="7" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="153" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A153" s="20"/>
-      <c r="B153" s="15"/>
-      <c r="C153" s="20"/>
-      <c r="D153" s="7" t="s">
+    <row r="154" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A154" s="22"/>
+      <c r="B154" s="15"/>
+      <c r="C154" s="21"/>
+      <c r="D154" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="E153" s="8" t="s">
+      <c r="E154" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="F153" s="7" t="s">
+      <c r="F154" s="7" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="154" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A154" s="20"/>
-      <c r="B154" s="15"/>
-      <c r="C154" s="20"/>
-      <c r="D154" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="E154" s="20"/>
-      <c r="F154" s="9" t="s">
+    <row r="155" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A155" s="22"/>
+      <c r="B155" s="15"/>
+      <c r="C155" s="21"/>
+      <c r="D155" s="7" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="155" customFormat="false" ht="14.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A155" s="20"/>
-      <c r="B155" s="15"/>
-      <c r="C155" s="20"/>
-      <c r="D155" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="E155" s="20"/>
+      <c r="E155" s="21"/>
       <c r="F155" s="9" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="156" customFormat="false" ht="14.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A156" s="22"/>
+      <c r="B156" s="15"/>
+      <c r="C156" s="21"/>
+      <c r="D156" s="7" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="156" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A156" s="20"/>
-      <c r="B156" s="20"/>
-      <c r="C156" s="20"/>
-      <c r="D156" s="13" t="s">
-        <v>159</v>
-      </c>
-      <c r="E156" s="20"/>
-      <c r="F156" s="12" t="s">
+      <c r="E156" s="21"/>
+      <c r="F156" s="9" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="157" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A157" s="22"/>
+      <c r="B157" s="21"/>
+      <c r="C157" s="21"/>
+      <c r="D157" s="13" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="157" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A157" s="20"/>
-      <c r="B157" s="20"/>
-      <c r="C157" s="20"/>
-      <c r="D157" s="20" t="s">
-        <v>164</v>
-      </c>
-      <c r="E157" s="20"/>
+      <c r="E157" s="21"/>
       <c r="F157" s="12" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="158" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A158" s="22"/>
+      <c r="B158" s="21"/>
+      <c r="C158" s="21"/>
+      <c r="D158" s="21" t="s">
         <v>165</v>
       </c>
-    </row>
-    <row r="158" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A158" s="6"/>
-      <c r="B158" s="7"/>
-      <c r="C158" s="7"/>
-      <c r="D158" s="7"/>
-      <c r="E158" s="7"/>
-      <c r="F158" s="12"/>
+      <c r="E158" s="21"/>
+      <c r="F158" s="12" t="s">
+        <v>166</v>
+      </c>
     </row>
     <row r="159" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A159" s="5"/>
-      <c r="B159" s="5"/>
-      <c r="C159" s="5"/>
-      <c r="D159" s="5"/>
-      <c r="E159" s="5"/>
-      <c r="F159" s="5"/>
-    </row>
-    <row r="160" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A160" s="6" t="s">
-        <v>166</v>
-      </c>
-      <c r="B160" s="15" t="s">
+      <c r="A159" s="6"/>
+      <c r="B159" s="7"/>
+      <c r="C159" s="7"/>
+      <c r="D159" s="7"/>
+      <c r="E159" s="7"/>
+      <c r="F159" s="12"/>
+    </row>
+    <row r="160" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A160" s="5"/>
+      <c r="B160" s="5"/>
+      <c r="C160" s="5"/>
+      <c r="D160" s="5"/>
+      <c r="E160" s="5"/>
+      <c r="F160" s="5"/>
+    </row>
+    <row r="161" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A161" s="6" t="s">
         <v>167</v>
       </c>
-      <c r="C160" s="20"/>
-      <c r="D160" s="7" t="s">
+      <c r="B161" s="15" t="s">
+        <v>168</v>
+      </c>
+      <c r="C161" s="21"/>
+      <c r="D161" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="E160" s="20"/>
-      <c r="F160" s="7" t="s">
+      <c r="E161" s="21"/>
+      <c r="F161" s="7" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="161" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A161" s="20"/>
-      <c r="B161" s="15"/>
-      <c r="C161" s="20"/>
-      <c r="D161" s="7" t="s">
+    <row r="162" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A162" s="22"/>
+      <c r="B162" s="15"/>
+      <c r="C162" s="21"/>
+      <c r="D162" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="E161" s="8" t="s">
+      <c r="E162" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="F161" s="7" t="s">
+      <c r="F162" s="7" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="162" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A162" s="20"/>
-      <c r="B162" s="15"/>
-      <c r="C162" s="20"/>
-      <c r="D162" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="E162" s="20"/>
-      <c r="F162" s="9" t="s">
+    <row r="163" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A163" s="22"/>
+      <c r="B163" s="15"/>
+      <c r="C163" s="21"/>
+      <c r="D163" s="7" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="163" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A163" s="20"/>
-      <c r="B163" s="15"/>
-      <c r="C163" s="20"/>
-      <c r="D163" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="E163" s="20"/>
+      <c r="E163" s="21"/>
       <c r="F163" s="9" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="164" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A164" s="22"/>
+      <c r="B164" s="15"/>
+      <c r="C164" s="21"/>
+      <c r="D164" s="7" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="164" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A164" s="20"/>
-      <c r="B164" s="20"/>
-      <c r="C164" s="20"/>
-      <c r="D164" s="13" t="s">
-        <v>168</v>
-      </c>
-      <c r="E164" s="20"/>
-      <c r="F164" s="12" t="s">
+      <c r="E164" s="21"/>
+      <c r="F164" s="9" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="165" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A165" s="22"/>
+      <c r="B165" s="21"/>
+      <c r="C165" s="21"/>
+      <c r="D165" s="13" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="165" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A165" s="5"/>
-      <c r="B165" s="5"/>
-      <c r="C165" s="5"/>
-      <c r="D165" s="5"/>
-      <c r="E165" s="5"/>
-      <c r="F165" s="5"/>
-    </row>
-    <row r="166" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A166" s="6" t="s">
+      <c r="E165" s="21"/>
+      <c r="F165" s="12" t="s">
         <v>170</v>
       </c>
-      <c r="B166" s="15" t="s">
+    </row>
+    <row r="166" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A166" s="5"/>
+      <c r="B166" s="5"/>
+      <c r="C166" s="5"/>
+      <c r="D166" s="5"/>
+      <c r="E166" s="5"/>
+      <c r="F166" s="5"/>
+    </row>
+    <row r="167" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A167" s="6" t="s">
         <v>171</v>
       </c>
-      <c r="C166" s="20"/>
-      <c r="D166" s="7" t="s">
+      <c r="B167" s="15" t="s">
+        <v>172</v>
+      </c>
+      <c r="C167" s="21"/>
+      <c r="D167" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="E166" s="20"/>
-      <c r="F166" s="7" t="s">
+      <c r="E167" s="21"/>
+      <c r="F167" s="7" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="167" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A167" s="20"/>
-      <c r="B167" s="15"/>
-      <c r="C167" s="20"/>
-      <c r="D167" s="7" t="s">
+    <row r="168" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A168" s="22"/>
+      <c r="B168" s="15"/>
+      <c r="C168" s="21"/>
+      <c r="D168" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="E167" s="8" t="s">
+      <c r="E168" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="F167" s="7" t="s">
+      <c r="F168" s="7" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="168" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A168" s="20"/>
-      <c r="B168" s="20"/>
-      <c r="C168" s="20"/>
-      <c r="D168" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="E168" s="20"/>
-      <c r="F168" s="9" t="s">
+    <row r="169" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A169" s="22"/>
+      <c r="B169" s="21"/>
+      <c r="C169" s="21"/>
+      <c r="D169" s="7" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="169" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A169" s="20"/>
-      <c r="B169" s="20"/>
-      <c r="C169" s="20"/>
-      <c r="D169" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="E169" s="20"/>
+      <c r="E169" s="21"/>
       <c r="F169" s="9" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="170" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A170" s="22"/>
+      <c r="B170" s="21"/>
+      <c r="C170" s="21"/>
+      <c r="D170" s="7" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="170" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A170" s="20"/>
-      <c r="B170" s="20"/>
-      <c r="C170" s="20"/>
-      <c r="D170" s="13" t="s">
-        <v>168</v>
-      </c>
-      <c r="E170" s="20"/>
-      <c r="F170" s="12" t="s">
+      <c r="E170" s="21"/>
+      <c r="F170" s="9" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="171" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A171" s="22"/>
+      <c r="B171" s="21"/>
+      <c r="C171" s="21"/>
+      <c r="D171" s="13" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="171" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A171" s="20"/>
-      <c r="B171" s="20"/>
-      <c r="C171" s="20"/>
-      <c r="D171" s="20" t="s">
-        <v>172</v>
-      </c>
-      <c r="E171" s="20"/>
+      <c r="E171" s="21"/>
       <c r="F171" s="12" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="172" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A172" s="22"/>
+      <c r="B172" s="21"/>
+      <c r="C172" s="21"/>
+      <c r="D172" s="21" t="s">
         <v>173</v>
       </c>
-    </row>
-    <row r="172" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A172" s="5"/>
-      <c r="B172" s="5"/>
-      <c r="C172" s="5"/>
-      <c r="D172" s="5"/>
-      <c r="E172" s="5"/>
-      <c r="F172" s="5"/>
-    </row>
-    <row r="173" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A173" s="6" t="s">
+      <c r="E172" s="21"/>
+      <c r="F172" s="12" t="s">
         <v>174</v>
       </c>
-      <c r="B173" s="15" t="s">
+    </row>
+    <row r="173" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A173" s="5"/>
+      <c r="B173" s="5"/>
+      <c r="C173" s="5"/>
+      <c r="D173" s="5"/>
+      <c r="E173" s="5"/>
+      <c r="F173" s="5"/>
+    </row>
+    <row r="174" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A174" s="6" t="s">
         <v>175</v>
       </c>
-      <c r="C173" s="20"/>
-      <c r="D173" s="7" t="s">
+      <c r="B174" s="15" t="s">
+        <v>176</v>
+      </c>
+      <c r="C174" s="21"/>
+      <c r="D174" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="E173" s="20"/>
-      <c r="F173" s="7" t="s">
+      <c r="E174" s="21"/>
+      <c r="F174" s="7" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="174" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A174" s="20"/>
-      <c r="B174" s="15"/>
-      <c r="C174" s="20"/>
-      <c r="D174" s="7" t="s">
+    <row r="175" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A175" s="22"/>
+      <c r="B175" s="15"/>
+      <c r="C175" s="21"/>
+      <c r="D175" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="E174" s="8" t="s">
+      <c r="E175" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="F174" s="7" t="s">
+      <c r="F175" s="7" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="175" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A175" s="20"/>
-      <c r="B175" s="20"/>
-      <c r="C175" s="20"/>
-      <c r="D175" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="E175" s="20"/>
-      <c r="F175" s="9" t="s">
+    <row r="176" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A176" s="22"/>
+      <c r="B176" s="21"/>
+      <c r="C176" s="21"/>
+      <c r="D176" s="7" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="176" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A176" s="20"/>
-      <c r="B176" s="20"/>
-      <c r="C176" s="20"/>
-      <c r="D176" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="E176" s="20"/>
+      <c r="E176" s="21"/>
       <c r="F176" s="9" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="177" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A177" s="22"/>
+      <c r="B177" s="21"/>
+      <c r="C177" s="21"/>
+      <c r="D177" s="7" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="177" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A177" s="20"/>
-      <c r="B177" s="20"/>
-      <c r="C177" s="20"/>
-      <c r="D177" s="13" t="s">
-        <v>168</v>
-      </c>
-      <c r="E177" s="20"/>
-      <c r="F177" s="12" t="s">
+      <c r="E177" s="21"/>
+      <c r="F177" s="9" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="178" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A178" s="22"/>
+      <c r="B178" s="21"/>
+      <c r="C178" s="21"/>
+      <c r="D178" s="13" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="178" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A178" s="20"/>
-      <c r="B178" s="20"/>
-      <c r="C178" s="20"/>
-      <c r="D178" s="20" t="s">
-        <v>176</v>
-      </c>
-      <c r="E178" s="20"/>
+      <c r="E178" s="21"/>
       <c r="F178" s="12" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="179" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A179" s="22"/>
+      <c r="B179" s="21"/>
+      <c r="C179" s="21"/>
+      <c r="D179" s="21" t="s">
+        <v>177</v>
+      </c>
+      <c r="E179" s="21"/>
+      <c r="F179" s="12" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="180" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A180" s="5"/>
+      <c r="B180" s="5"/>
+      <c r="C180" s="5"/>
+      <c r="D180" s="5"/>
+      <c r="E180" s="5"/>
+      <c r="F180" s="5"/>
+    </row>
+    <row r="181" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A181" s="6" t="s">
+        <v>178</v>
+      </c>
+      <c r="B181" s="15" t="s">
+        <v>179</v>
+      </c>
+      <c r="C181" s="21"/>
+      <c r="D181" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E181" s="21"/>
+      <c r="F181" s="7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="182" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A182" s="22"/>
+      <c r="B182" s="15"/>
+      <c r="C182" s="21"/>
+      <c r="D182" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E182" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F182" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="183" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A183" s="22"/>
+      <c r="B183" s="15"/>
+      <c r="C183" s="21"/>
+      <c r="D183" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="E183" s="21"/>
+      <c r="F183" s="9" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="184" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A184" s="22"/>
+      <c r="B184" s="21"/>
+      <c r="C184" s="21"/>
+      <c r="D184" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="E184" s="21"/>
+      <c r="F184" s="9" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="185" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A185" s="22"/>
+      <c r="B185" s="21"/>
+      <c r="C185" s="21"/>
+      <c r="D185" s="13" t="s">
+        <v>169</v>
+      </c>
+      <c r="E185" s="21"/>
+      <c r="F185" s="12" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="186" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A186" s="22"/>
+      <c r="B186" s="21"/>
+      <c r="C186" s="21"/>
+      <c r="D186" s="13" t="s">
+        <v>180</v>
+      </c>
+      <c r="E186" s="21" t="s">
+        <v>181</v>
+      </c>
+      <c r="F186" s="16" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="187" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A187" s="22"/>
+      <c r="B187" s="21"/>
+      <c r="C187" s="21"/>
+      <c r="D187" s="23" t="s">
+        <v>177</v>
+      </c>
+      <c r="E187" s="21"/>
+      <c r="F187" s="12" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="188" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A188" s="5"/>
+      <c r="B188" s="5"/>
+      <c r="C188" s="5"/>
+      <c r="D188" s="5"/>
+      <c r="E188" s="5"/>
+      <c r="F188" s="5"/>
+    </row>
+    <row r="189" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A189" s="6" t="s">
+        <v>184</v>
+      </c>
+      <c r="B189" s="15" t="s">
+        <v>185</v>
+      </c>
+      <c r="C189" s="21"/>
+      <c r="D189" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E189" s="21"/>
+      <c r="F189" s="7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="190" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A190" s="22"/>
+      <c r="B190" s="15"/>
+      <c r="C190" s="21"/>
+      <c r="D190" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E190" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F190" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="191" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A191" s="22"/>
+      <c r="B191" s="15"/>
+      <c r="C191" s="21"/>
+      <c r="D191" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="E191" s="21"/>
+      <c r="F191" s="9" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="192" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A192" s="22"/>
+      <c r="B192" s="21"/>
+      <c r="C192" s="21"/>
+      <c r="D192" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="E192" s="21"/>
+      <c r="F192" s="9" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="193" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A193" s="22"/>
+      <c r="B193" s="21"/>
+      <c r="C193" s="21"/>
+      <c r="D193" s="13" t="s">
+        <v>169</v>
+      </c>
+      <c r="E193" s="21"/>
+      <c r="F193" s="12" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="194" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A194" s="22"/>
+      <c r="B194" s="21"/>
+      <c r="C194" s="21"/>
+      <c r="D194" s="13" t="s">
+        <v>180</v>
+      </c>
+      <c r="E194" s="21" t="s">
+        <v>181</v>
+      </c>
+      <c r="F194" s="16" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="195" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A195" s="22"/>
+      <c r="B195" s="21"/>
+      <c r="C195" s="21"/>
+      <c r="D195" s="23" t="s">
         <v>173</v>
       </c>
-    </row>
-    <row r="179" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A179" s="5"/>
-      <c r="B179" s="5"/>
-      <c r="C179" s="5"/>
-      <c r="D179" s="5"/>
-      <c r="E179" s="5"/>
-      <c r="F179" s="5"/>
-    </row>
-    <row r="180" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A180" s="6" t="s">
-        <v>177</v>
-      </c>
-      <c r="B180" s="15" t="s">
-        <v>178</v>
-      </c>
-      <c r="C180" s="20"/>
-      <c r="D180" s="7" t="s">
+      <c r="E195" s="21"/>
+      <c r="F195" s="12" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="196" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A196" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="B196" s="5"/>
+      <c r="C196" s="5"/>
+      <c r="D196" s="5"/>
+      <c r="E196" s="5"/>
+      <c r="F196" s="5"/>
+    </row>
+    <row r="197" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A197" s="6" t="s">
+        <v>188</v>
+      </c>
+      <c r="B197" s="15" t="s">
+        <v>189</v>
+      </c>
+      <c r="C197" s="21"/>
+      <c r="D197" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="E180" s="20"/>
-      <c r="F180" s="7" t="s">
+      <c r="E197" s="21"/>
+      <c r="F197" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="181" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A181" s="20"/>
-      <c r="B181" s="15"/>
-      <c r="C181" s="20"/>
-      <c r="D181" s="7" t="s">
+    <row r="198" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A198" s="22"/>
+      <c r="B198" s="15"/>
+      <c r="C198" s="21"/>
+      <c r="D198" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="E181" s="8" t="s">
+      <c r="E198" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="F181" s="7" t="s">
+      <c r="F198" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="182" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A182" s="20"/>
-      <c r="B182" s="15"/>
-      <c r="C182" s="20"/>
-      <c r="D182" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="E182" s="20"/>
-      <c r="F182" s="9" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="183" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A183" s="20"/>
-      <c r="B183" s="20"/>
-      <c r="C183" s="20"/>
-      <c r="D183" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="E183" s="20"/>
-      <c r="F183" s="9" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="184" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A184" s="20"/>
-      <c r="B184" s="20"/>
-      <c r="C184" s="20"/>
-      <c r="D184" s="13" t="s">
-        <v>168</v>
-      </c>
-      <c r="E184" s="20"/>
-      <c r="F184" s="12" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="185" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A185" s="20"/>
-      <c r="B185" s="20"/>
-      <c r="C185" s="20"/>
-      <c r="D185" s="13" t="s">
-        <v>179</v>
-      </c>
-      <c r="E185" s="20" t="s">
-        <v>180</v>
-      </c>
-      <c r="F185" s="16" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="186" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A186" s="20"/>
-      <c r="B186" s="20"/>
-      <c r="C186" s="20"/>
-      <c r="D186" s="21" t="s">
-        <v>176</v>
-      </c>
-      <c r="E186" s="20"/>
-      <c r="F186" s="12" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="187" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A187" s="5"/>
-      <c r="B187" s="5"/>
-      <c r="C187" s="5"/>
-      <c r="D187" s="5"/>
-      <c r="E187" s="5"/>
-      <c r="F187" s="5"/>
-    </row>
-    <row r="188" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A188" s="6" t="s">
-        <v>183</v>
-      </c>
-      <c r="B188" s="15" t="s">
-        <v>184</v>
-      </c>
-      <c r="C188" s="20"/>
-      <c r="D188" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="E188" s="20"/>
-      <c r="F188" s="7" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="189" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A189" s="20"/>
-      <c r="B189" s="15"/>
-      <c r="C189" s="20"/>
-      <c r="D189" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="E189" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="F189" s="7" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="190" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A190" s="20"/>
-      <c r="B190" s="15"/>
-      <c r="C190" s="20"/>
-      <c r="D190" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="E190" s="20"/>
-      <c r="F190" s="9" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="191" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A191" s="20"/>
-      <c r="B191" s="20"/>
-      <c r="C191" s="20"/>
-      <c r="D191" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="E191" s="20"/>
-      <c r="F191" s="9" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="192" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A192" s="20"/>
-      <c r="B192" s="20"/>
-      <c r="C192" s="20"/>
-      <c r="D192" s="13" t="s">
-        <v>168</v>
-      </c>
-      <c r="E192" s="20"/>
-      <c r="F192" s="12" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="193" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A193" s="20"/>
-      <c r="B193" s="20"/>
-      <c r="C193" s="20"/>
-      <c r="D193" s="13" t="s">
-        <v>179</v>
-      </c>
-      <c r="E193" s="20" t="s">
-        <v>180</v>
-      </c>
-      <c r="F193" s="16" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="194" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A194" s="20"/>
-      <c r="B194" s="20"/>
-      <c r="C194" s="20"/>
-      <c r="D194" s="21" t="s">
-        <v>172</v>
-      </c>
-      <c r="E194" s="20"/>
-      <c r="F194" s="12" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="195" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A195" s="5" t="s">
-        <v>186</v>
-      </c>
-      <c r="B195" s="5"/>
-      <c r="C195" s="5"/>
-      <c r="D195" s="5"/>
-      <c r="E195" s="5"/>
-      <c r="F195" s="5"/>
-    </row>
-    <row r="196" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A196" s="6" t="s">
-        <v>187</v>
-      </c>
-      <c r="B196" s="15" t="s">
-        <v>188</v>
-      </c>
-      <c r="C196" s="20"/>
-      <c r="D196" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="E196" s="20"/>
-      <c r="F196" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="197" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A197" s="20"/>
-      <c r="B197" s="15"/>
-      <c r="C197" s="20"/>
-      <c r="D197" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="E197" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="F197" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="198" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A198" s="20"/>
-      <c r="B198" s="20"/>
-      <c r="C198" s="20"/>
-      <c r="D198" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="E198" s="20"/>
-      <c r="F198" s="9" t="s">
-        <v>52</v>
-      </c>
-    </row>
     <row r="199" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A199" s="20"/>
-      <c r="B199" s="20"/>
-      <c r="C199" s="20"/>
+      <c r="A199" s="22"/>
+      <c r="B199" s="21"/>
+      <c r="C199" s="21"/>
       <c r="D199" s="7" t="s">
-        <v>189</v>
-      </c>
-      <c r="E199" s="20"/>
+        <v>28</v>
+      </c>
+      <c r="E199" s="21"/>
       <c r="F199" s="9" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="200" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A200" s="22"/>
+      <c r="B200" s="21"/>
+      <c r="C200" s="21"/>
+      <c r="D200" s="7" t="s">
         <v>190</v>
       </c>
-    </row>
-    <row r="200" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A200" s="5"/>
-      <c r="B200" s="5"/>
-      <c r="C200" s="5"/>
-      <c r="D200" s="5"/>
-      <c r="E200" s="5"/>
-      <c r="F200" s="5"/>
+      <c r="E200" s="21"/>
+      <c r="F200" s="9" t="s">
+        <v>191</v>
+      </c>
     </row>
     <row r="201" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A201" s="6" t="s">
-        <v>191</v>
-      </c>
-      <c r="B201" s="15" t="s">
+      <c r="A201" s="5"/>
+      <c r="B201" s="5"/>
+      <c r="C201" s="5"/>
+      <c r="D201" s="5"/>
+      <c r="E201" s="5"/>
+      <c r="F201" s="5"/>
+    </row>
+    <row r="202" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A202" s="6" t="s">
         <v>192</v>
       </c>
-      <c r="C201" s="0"/>
-      <c r="D201" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="E201" s="20"/>
-      <c r="F201" s="7" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="202" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A202" s="20"/>
-      <c r="B202" s="15"/>
+      <c r="B202" s="15" t="s">
+        <v>193</v>
+      </c>
       <c r="C202" s="0"/>
       <c r="D202" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="E202" s="8" t="s">
-        <v>12</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="E202" s="21"/>
       <c r="F202" s="7" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="203" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A203" s="20"/>
-      <c r="B203" s="20"/>
+      <c r="A203" s="22"/>
+      <c r="B203" s="15"/>
       <c r="C203" s="0"/>
       <c r="D203" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="E203" s="20"/>
-      <c r="F203" s="9" t="s">
-        <v>52</v>
+        <v>11</v>
+      </c>
+      <c r="E203" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F203" s="7" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="204" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A204" s="20"/>
-      <c r="B204" s="20"/>
-      <c r="C204" s="20"/>
+      <c r="A204" s="22"/>
+      <c r="B204" s="21"/>
+      <c r="C204" s="0"/>
       <c r="D204" s="7" t="s">
-        <v>189</v>
-      </c>
-      <c r="E204" s="20"/>
+        <v>28</v>
+      </c>
+      <c r="E204" s="21"/>
       <c r="F204" s="9" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="205" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A205" s="22"/>
+      <c r="B205" s="21"/>
+      <c r="C205" s="21"/>
+      <c r="D205" s="7" t="s">
         <v>190</v>
       </c>
-    </row>
-    <row r="205" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A205" s="20"/>
-      <c r="B205" s="20"/>
-      <c r="C205" s="20"/>
-      <c r="D205" s="13" t="s">
-        <v>193</v>
-      </c>
-      <c r="E205" s="20"/>
-      <c r="F205" s="12" t="s">
+      <c r="E205" s="21"/>
+      <c r="F205" s="9" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="206" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A206" s="22"/>
+      <c r="B206" s="21"/>
+      <c r="C206" s="21"/>
+      <c r="D206" s="13" t="s">
         <v>194</v>
       </c>
-    </row>
-    <row r="206" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A206" s="20"/>
-      <c r="B206" s="20"/>
-      <c r="C206" s="20"/>
-      <c r="D206" s="20" t="s">
+      <c r="E206" s="21"/>
+      <c r="F206" s="12" t="s">
         <v>195</v>
       </c>
-      <c r="E206" s="20"/>
-      <c r="F206" s="12" t="s">
+    </row>
+    <row r="207" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A207" s="22"/>
+      <c r="B207" s="21"/>
+      <c r="C207" s="21"/>
+      <c r="D207" s="21" t="s">
         <v>196</v>
       </c>
-    </row>
-    <row r="207" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A207" s="5"/>
-      <c r="B207" s="5"/>
-      <c r="C207" s="5"/>
-      <c r="D207" s="5"/>
-      <c r="E207" s="5"/>
-      <c r="F207" s="5"/>
-    </row>
-    <row r="208" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A208" s="6" t="s">
+      <c r="E207" s="21"/>
+      <c r="F207" s="12" t="s">
         <v>197</v>
       </c>
-      <c r="B208" s="15" t="s">
+    </row>
+    <row r="208" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A208" s="5"/>
+      <c r="B208" s="5"/>
+      <c r="C208" s="5"/>
+      <c r="D208" s="5"/>
+      <c r="E208" s="5"/>
+      <c r="F208" s="5"/>
+    </row>
+    <row r="209" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A209" s="6" t="s">
         <v>198</v>
       </c>
-      <c r="C208" s="11" t="s">
+      <c r="B209" s="15" t="s">
         <v>199</v>
       </c>
-      <c r="D208" s="7" t="s">
+      <c r="C209" s="11" t="s">
+        <v>200</v>
+      </c>
+      <c r="D209" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="E208" s="20"/>
-      <c r="F208" s="7" t="s">
+      <c r="E209" s="21"/>
+      <c r="F209" s="7" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="209" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A209" s="20"/>
-      <c r="B209" s="15"/>
-      <c r="C209" s="11"/>
-      <c r="D209" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="E209" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="F209" s="7" t="s">
-        <v>18</v>
-      </c>
-    </row>
     <row r="210" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A210" s="20"/>
+      <c r="A210" s="22"/>
       <c r="B210" s="15"/>
       <c r="C210" s="11"/>
       <c r="D210" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="E210" s="20"/>
-      <c r="F210" s="9" t="s">
-        <v>52</v>
+        <v>11</v>
+      </c>
+      <c r="E210" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F210" s="7" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="211" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A211" s="20"/>
-      <c r="B211" s="20"/>
-      <c r="C211" s="20"/>
+      <c r="A211" s="22"/>
+      <c r="B211" s="15"/>
+      <c r="C211" s="11"/>
       <c r="D211" s="7" t="s">
-        <v>189</v>
-      </c>
-      <c r="E211" s="20"/>
+        <v>28</v>
+      </c>
+      <c r="E211" s="21"/>
       <c r="F211" s="9" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="212" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A212" s="22"/>
+      <c r="B212" s="21"/>
+      <c r="C212" s="21"/>
+      <c r="D212" s="7" t="s">
         <v>190</v>
       </c>
-    </row>
-    <row r="212" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A212" s="20"/>
-      <c r="B212" s="20"/>
-      <c r="C212" s="20"/>
-      <c r="D212" s="7" t="s">
+      <c r="E212" s="21"/>
+      <c r="F212" s="9" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="213" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A213" s="22"/>
+      <c r="B213" s="21"/>
+      <c r="C213" s="21"/>
+      <c r="D213" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="E213" s="21"/>
+      <c r="F213" s="12" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="214" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A214" s="5"/>
+      <c r="B214" s="5"/>
+      <c r="C214" s="5"/>
+      <c r="D214" s="5"/>
+      <c r="E214" s="5"/>
+      <c r="F214" s="5"/>
+    </row>
+    <row r="215" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A215" s="6" t="s">
+        <v>203</v>
+      </c>
+      <c r="B215" s="15" t="s">
+        <v>204</v>
+      </c>
+      <c r="C215" s="11" t="s">
         <v>200</v>
       </c>
-      <c r="E212" s="20"/>
-      <c r="F212" s="12" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="213" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A213" s="5"/>
-      <c r="B213" s="5"/>
-      <c r="C213" s="5"/>
-      <c r="D213" s="5"/>
-      <c r="E213" s="5"/>
-      <c r="F213" s="5"/>
-    </row>
-    <row r="214" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A214" s="6" t="s">
-        <v>202</v>
-      </c>
-      <c r="B214" s="15" t="s">
-        <v>203</v>
-      </c>
-      <c r="C214" s="11" t="s">
-        <v>199</v>
-      </c>
-      <c r="D214" s="7" t="s">
+      <c r="D215" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="E214" s="20"/>
-      <c r="F214" s="7" t="s">
+      <c r="E215" s="21"/>
+      <c r="F215" s="7" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="215" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A215" s="20"/>
-      <c r="B215" s="15"/>
-      <c r="C215" s="11"/>
-      <c r="D215" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="E215" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="F215" s="7" t="s">
-        <v>18</v>
-      </c>
-    </row>
     <row r="216" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A216" s="20"/>
+      <c r="A216" s="22"/>
       <c r="B216" s="15"/>
       <c r="C216" s="11"/>
       <c r="D216" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="E216" s="20"/>
-      <c r="F216" s="9" t="s">
-        <v>52</v>
+        <v>11</v>
+      </c>
+      <c r="E216" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F216" s="7" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="217" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A217" s="20"/>
-      <c r="B217" s="20"/>
-      <c r="C217" s="20"/>
+      <c r="A217" s="22"/>
+      <c r="B217" s="15"/>
+      <c r="C217" s="11"/>
       <c r="D217" s="7" t="s">
-        <v>189</v>
-      </c>
-      <c r="E217" s="20"/>
+        <v>28</v>
+      </c>
+      <c r="E217" s="21"/>
       <c r="F217" s="9" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="218" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A218" s="22"/>
+      <c r="B218" s="21"/>
+      <c r="C218" s="21"/>
+      <c r="D218" s="7" t="s">
         <v>190</v>
       </c>
-    </row>
-    <row r="218" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A218" s="20"/>
-      <c r="B218" s="20"/>
-      <c r="C218" s="20"/>
-      <c r="D218" s="7" t="s">
-        <v>204</v>
-      </c>
-      <c r="E218" s="20"/>
-      <c r="F218" s="12" t="s">
+      <c r="E218" s="21"/>
+      <c r="F218" s="9" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="219" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A219" s="22"/>
+      <c r="B219" s="21"/>
+      <c r="C219" s="21"/>
+      <c r="D219" s="7" t="s">
         <v>205</v>
       </c>
-    </row>
-    <row r="219" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A219" s="5"/>
-      <c r="B219" s="5"/>
-      <c r="C219" s="5"/>
-      <c r="D219" s="5"/>
-      <c r="E219" s="5"/>
-      <c r="F219" s="5"/>
-    </row>
-    <row r="220" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A220" s="6" t="s">
+      <c r="E219" s="21"/>
+      <c r="F219" s="12" t="s">
         <v>206</v>
       </c>
-      <c r="B220" s="15" t="s">
+    </row>
+    <row r="220" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A220" s="5"/>
+      <c r="B220" s="5"/>
+      <c r="C220" s="5"/>
+      <c r="D220" s="5"/>
+      <c r="E220" s="5"/>
+      <c r="F220" s="5"/>
+    </row>
+    <row r="221" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A221" s="6" t="s">
         <v>207</v>
       </c>
-      <c r="C220" s="11" t="s">
-        <v>199</v>
-      </c>
-      <c r="D220" s="7" t="s">
+      <c r="B221" s="15" t="s">
+        <v>208</v>
+      </c>
+      <c r="C221" s="11" t="s">
+        <v>200</v>
+      </c>
+      <c r="D221" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="E220" s="20"/>
-      <c r="F220" s="7" t="s">
+      <c r="E221" s="21"/>
+      <c r="F221" s="7" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="221" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A221" s="20"/>
-      <c r="B221" s="15"/>
-      <c r="C221" s="11"/>
-      <c r="D221" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="E221" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="F221" s="7" t="s">
-        <v>18</v>
-      </c>
-    </row>
     <row r="222" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A222" s="20"/>
+      <c r="A222" s="22"/>
       <c r="B222" s="15"/>
       <c r="C222" s="11"/>
       <c r="D222" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="E222" s="20"/>
-      <c r="F222" s="9" t="s">
-        <v>52</v>
+        <v>11</v>
+      </c>
+      <c r="E222" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F222" s="7" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="223" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A223" s="20"/>
-      <c r="B223" s="20"/>
-      <c r="C223" s="20"/>
+      <c r="A223" s="22"/>
+      <c r="B223" s="15"/>
+      <c r="C223" s="11"/>
       <c r="D223" s="7" t="s">
-        <v>189</v>
-      </c>
-      <c r="E223" s="20"/>
+        <v>28</v>
+      </c>
+      <c r="E223" s="21"/>
       <c r="F223" s="9" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="224" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A224" s="22"/>
+      <c r="B224" s="21"/>
+      <c r="C224" s="21"/>
+      <c r="D224" s="7" t="s">
         <v>190</v>
       </c>
-    </row>
-    <row r="224" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A224" s="20"/>
-      <c r="B224" s="20"/>
-      <c r="C224" s="20"/>
-      <c r="D224" s="7" t="s">
-        <v>208</v>
-      </c>
-      <c r="E224" s="20"/>
-      <c r="F224" s="12" t="s">
+      <c r="E224" s="21"/>
+      <c r="F224" s="9" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="225" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A225" s="22"/>
+      <c r="B225" s="21"/>
+      <c r="C225" s="21"/>
+      <c r="D225" s="7" t="s">
         <v>209</v>
       </c>
-    </row>
-    <row r="225" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A225" s="5"/>
-      <c r="B225" s="5"/>
-      <c r="C225" s="5"/>
-      <c r="D225" s="5"/>
-      <c r="E225" s="5"/>
-      <c r="F225" s="5"/>
-    </row>
-    <row r="226" customFormat="false" ht="23.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A226" s="6" t="s">
+      <c r="E225" s="21"/>
+      <c r="F225" s="12" t="s">
         <v>210</v>
       </c>
-      <c r="B226" s="15" t="s">
+    </row>
+    <row r="226" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A226" s="5"/>
+      <c r="B226" s="5"/>
+      <c r="C226" s="5"/>
+      <c r="D226" s="5"/>
+      <c r="E226" s="5"/>
+      <c r="F226" s="5"/>
+    </row>
+    <row r="227" customFormat="false" ht="23.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A227" s="6" t="s">
         <v>211</v>
       </c>
-      <c r="C226" s="11" t="s">
-        <v>199</v>
-      </c>
-      <c r="D226" s="7" t="s">
+      <c r="B227" s="15" t="s">
+        <v>212</v>
+      </c>
+      <c r="C227" s="11" t="s">
+        <v>200</v>
+      </c>
+      <c r="D227" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="E226" s="20"/>
-      <c r="F226" s="7" t="s">
+      <c r="E227" s="21"/>
+      <c r="F227" s="7" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="227" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A227" s="20"/>
-      <c r="B227" s="15"/>
-      <c r="C227" s="11"/>
-      <c r="D227" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="E227" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="F227" s="7" t="s">
-        <v>18</v>
-      </c>
-    </row>
     <row r="228" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A228" s="20"/>
+      <c r="A228" s="22"/>
       <c r="B228" s="15"/>
       <c r="C228" s="11"/>
       <c r="D228" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="E228" s="20"/>
-      <c r="F228" s="9" t="s">
-        <v>52</v>
+        <v>11</v>
+      </c>
+      <c r="E228" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F228" s="7" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="229" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A229" s="20"/>
-      <c r="B229" s="20"/>
-      <c r="C229" s="20"/>
+      <c r="A229" s="22"/>
+      <c r="B229" s="15"/>
+      <c r="C229" s="11"/>
       <c r="D229" s="7" t="s">
-        <v>189</v>
-      </c>
-      <c r="E229" s="20"/>
+        <v>28</v>
+      </c>
+      <c r="E229" s="21"/>
       <c r="F229" s="9" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="230" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A230" s="22"/>
+      <c r="B230" s="21"/>
+      <c r="C230" s="21"/>
+      <c r="D230" s="7" t="s">
         <v>190</v>
       </c>
-    </row>
-    <row r="230" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A230" s="20"/>
-      <c r="B230" s="20"/>
-      <c r="C230" s="20"/>
-      <c r="D230" s="7" t="s">
-        <v>200</v>
-      </c>
-      <c r="E230" s="20"/>
-      <c r="F230" s="12" t="s">
+      <c r="E230" s="21"/>
+      <c r="F230" s="9" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="231" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A231" s="22"/>
+      <c r="B231" s="21"/>
+      <c r="C231" s="21"/>
+      <c r="D231" s="7" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="231" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A231" s="20"/>
-      <c r="B231" s="20"/>
-      <c r="C231" s="20"/>
-      <c r="D231" s="22" t="s">
-        <v>204</v>
-      </c>
-      <c r="E231" s="20"/>
+      <c r="E231" s="21"/>
       <c r="F231" s="12" t="s">
-        <v>212</v>
+        <v>202</v>
       </c>
     </row>
     <row r="232" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A232" s="20"/>
-      <c r="B232" s="20"/>
-      <c r="C232" s="20"/>
-      <c r="D232" s="22" t="s">
-        <v>208</v>
-      </c>
-      <c r="E232" s="20"/>
+      <c r="A232" s="22"/>
+      <c r="B232" s="21"/>
+      <c r="C232" s="21"/>
+      <c r="D232" s="24" t="s">
+        <v>205</v>
+      </c>
+      <c r="E232" s="21"/>
       <c r="F232" s="12" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="233" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A233" s="5"/>
-      <c r="B233" s="5"/>
-      <c r="C233" s="5"/>
-      <c r="D233" s="5"/>
-      <c r="E233" s="5"/>
-      <c r="F233" s="5"/>
+    <row r="233" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A233" s="22"/>
+      <c r="B233" s="21"/>
+      <c r="C233" s="21"/>
+      <c r="D233" s="24" t="s">
+        <v>209</v>
+      </c>
+      <c r="E233" s="21"/>
+      <c r="F233" s="12" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="234" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A234" s="5"/>
+      <c r="B234" s="5"/>
+      <c r="C234" s="5"/>
+      <c r="D234" s="5"/>
+      <c r="E234" s="5"/>
+      <c r="F234" s="5"/>
     </row>
   </sheetData>
-  <mergeCells count="61">
+  <mergeCells count="63">
     <mergeCell ref="A2:F2"/>
     <mergeCell ref="B11:B12"/>
     <mergeCell ref="B15:B16"/>
@@ -4628,56 +4896,58 @@
     <mergeCell ref="A38:F38"/>
     <mergeCell ref="A43:F43"/>
     <mergeCell ref="B44:B45"/>
-    <mergeCell ref="A53:F53"/>
-    <mergeCell ref="B54:B55"/>
-    <mergeCell ref="A62:F62"/>
-    <mergeCell ref="B63:B64"/>
-    <mergeCell ref="A89:F89"/>
-    <mergeCell ref="A95:F95"/>
-    <mergeCell ref="B96:B97"/>
-    <mergeCell ref="A100:F100"/>
-    <mergeCell ref="B101:B102"/>
-    <mergeCell ref="A106:F106"/>
-    <mergeCell ref="B107:B108"/>
-    <mergeCell ref="A112:F112"/>
-    <mergeCell ref="B113:B114"/>
-    <mergeCell ref="A118:F118"/>
-    <mergeCell ref="A123:F123"/>
-    <mergeCell ref="B124:B125"/>
-    <mergeCell ref="A129:F129"/>
-    <mergeCell ref="B130:B131"/>
-    <mergeCell ref="A136:F136"/>
-    <mergeCell ref="B137:B140"/>
-    <mergeCell ref="A143:F143"/>
-    <mergeCell ref="B144:B147"/>
-    <mergeCell ref="F149:F150"/>
-    <mergeCell ref="A151:F151"/>
-    <mergeCell ref="B152:B155"/>
-    <mergeCell ref="F157:F158"/>
-    <mergeCell ref="A159:F159"/>
-    <mergeCell ref="B160:B163"/>
-    <mergeCell ref="A165:F165"/>
-    <mergeCell ref="B166:B167"/>
-    <mergeCell ref="A172:F172"/>
-    <mergeCell ref="B173:B174"/>
-    <mergeCell ref="A179:F179"/>
-    <mergeCell ref="B180:B182"/>
-    <mergeCell ref="A187:F187"/>
-    <mergeCell ref="B188:B190"/>
-    <mergeCell ref="A195:F195"/>
-    <mergeCell ref="B196:B197"/>
-    <mergeCell ref="A200:F200"/>
-    <mergeCell ref="A207:F207"/>
-    <mergeCell ref="B208:B210"/>
-    <mergeCell ref="C208:C210"/>
-    <mergeCell ref="A213:F213"/>
-    <mergeCell ref="B214:B216"/>
-    <mergeCell ref="C214:C216"/>
-    <mergeCell ref="A219:F219"/>
-    <mergeCell ref="C220:C222"/>
-    <mergeCell ref="A225:F225"/>
-    <mergeCell ref="C226:C228"/>
-    <mergeCell ref="A233:F233"/>
+    <mergeCell ref="F52:F53"/>
+    <mergeCell ref="G52:G53"/>
+    <mergeCell ref="A54:F54"/>
+    <mergeCell ref="B55:B56"/>
+    <mergeCell ref="A63:F63"/>
+    <mergeCell ref="B64:B65"/>
+    <mergeCell ref="A90:F90"/>
+    <mergeCell ref="A96:F96"/>
+    <mergeCell ref="B97:B98"/>
+    <mergeCell ref="A101:F101"/>
+    <mergeCell ref="B102:B103"/>
+    <mergeCell ref="A107:F107"/>
+    <mergeCell ref="B108:B109"/>
+    <mergeCell ref="A113:F113"/>
+    <mergeCell ref="B114:B115"/>
+    <mergeCell ref="A119:F119"/>
+    <mergeCell ref="A124:F124"/>
+    <mergeCell ref="B125:B126"/>
+    <mergeCell ref="A130:F130"/>
+    <mergeCell ref="B131:B132"/>
+    <mergeCell ref="A137:F137"/>
+    <mergeCell ref="B138:B141"/>
+    <mergeCell ref="A144:F144"/>
+    <mergeCell ref="B145:B148"/>
+    <mergeCell ref="F150:F151"/>
+    <mergeCell ref="A152:F152"/>
+    <mergeCell ref="B153:B156"/>
+    <mergeCell ref="F158:F159"/>
+    <mergeCell ref="A160:F160"/>
+    <mergeCell ref="B161:B164"/>
+    <mergeCell ref="A166:F166"/>
+    <mergeCell ref="B167:B168"/>
+    <mergeCell ref="A173:F173"/>
+    <mergeCell ref="B174:B175"/>
+    <mergeCell ref="A180:F180"/>
+    <mergeCell ref="B181:B183"/>
+    <mergeCell ref="A188:F188"/>
+    <mergeCell ref="B189:B191"/>
+    <mergeCell ref="A196:F196"/>
+    <mergeCell ref="B197:B198"/>
+    <mergeCell ref="A201:F201"/>
+    <mergeCell ref="A208:F208"/>
+    <mergeCell ref="B209:B211"/>
+    <mergeCell ref="C209:C211"/>
+    <mergeCell ref="A214:F214"/>
+    <mergeCell ref="B215:B217"/>
+    <mergeCell ref="C215:C217"/>
+    <mergeCell ref="A220:F220"/>
+    <mergeCell ref="C221:C223"/>
+    <mergeCell ref="A226:F226"/>
+    <mergeCell ref="C227:C229"/>
+    <mergeCell ref="A234:F234"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="E4" r:id="rId1" display="https://demoqa.com/"/>
@@ -4693,42 +4963,43 @@
     <hyperlink ref="E45" r:id="rId11" display="https://demoqa.com/"/>
     <hyperlink ref="E49" r:id="rId12" display="vlada@test.com"/>
     <hyperlink ref="F49" r:id="rId13" display="The “Email” field is filled and visible :vlada@test.com"/>
-    <hyperlink ref="E55" r:id="rId14" display="https://demoqa.com/"/>
-    <hyperlink ref="E58" r:id="rId15" display="v@t.rs"/>
-    <hyperlink ref="F58" r:id="rId16" display="The “Email” field is filled and visible :v@t.rs"/>
-    <hyperlink ref="E60" r:id="rId17" display="v@t.com"/>
-    <hyperlink ref="F60" r:id="rId18" display="The “Email” field is filled and visible :v@t.com"/>
-    <hyperlink ref="E64" r:id="rId19" display="https://demoqa.com/"/>
-    <hyperlink ref="E75" r:id="rId20" display="s@ccom"/>
-    <hyperlink ref="F75" r:id="rId21" display="The “Email” field is filled and visible :s@ccom"/>
-    <hyperlink ref="E79" r:id="rId22" display="s@c.comc"/>
-    <hyperlink ref="F79" r:id="rId23" display="The “Email” field is filled and visible :s@c.comc"/>
-    <hyperlink ref="E83" r:id="rId24" display="s@s.c om"/>
-    <hyperlink ref="F83" r:id="rId25" display="The “Email” field is filled and visible :s@s.c om"/>
-    <hyperlink ref="E87" r:id="rId26" display="s@s s.com"/>
-    <hyperlink ref="F87" r:id="rId27" display="The “Email” field is filled and visible :s@s s.com"/>
-    <hyperlink ref="E91" r:id="rId28" display="https://demoqa.com/"/>
-    <hyperlink ref="E97" r:id="rId29" display="https://demoqa.com/"/>
-    <hyperlink ref="E102" r:id="rId30" display="https://demoqa.com/"/>
-    <hyperlink ref="E108" r:id="rId31" display="https://demoqa.com/"/>
-    <hyperlink ref="E114" r:id="rId32" display="https://demoqa.com/"/>
-    <hyperlink ref="E120" r:id="rId33" display="https://demoqa.com/"/>
-    <hyperlink ref="E125" r:id="rId34" display="https://demoqa.com/"/>
-    <hyperlink ref="E131" r:id="rId35" display="https://demoqa.com/"/>
-    <hyperlink ref="E138" r:id="rId36" display="https://demoqa.com/"/>
-    <hyperlink ref="E145" r:id="rId37" display="https://demoqa.com/"/>
-    <hyperlink ref="E153" r:id="rId38" display="https://demoqa.com/"/>
-    <hyperlink ref="E161" r:id="rId39" display="https://demoqa.com/"/>
-    <hyperlink ref="E167" r:id="rId40" display="https://demoqa.com/"/>
-    <hyperlink ref="E174" r:id="rId41" display="https://demoqa.com/"/>
-    <hyperlink ref="E181" r:id="rId42" display="https://demoqa.com/"/>
-    <hyperlink ref="E189" r:id="rId43" display="https://demoqa.com/"/>
-    <hyperlink ref="E197" r:id="rId44" display="https://demoqa.com/"/>
-    <hyperlink ref="E202" r:id="rId45" display="https://demoqa.com/"/>
-    <hyperlink ref="E209" r:id="rId46" display="https://demoqa.com/"/>
-    <hyperlink ref="E215" r:id="rId47" display="https://demoqa.com/"/>
-    <hyperlink ref="E221" r:id="rId48" display="https://demoqa.com/"/>
-    <hyperlink ref="E227" r:id="rId49" display="https://demoqa.com/"/>
+    <hyperlink ref="F52" r:id="rId14" display="vlada@test.com"/>
+    <hyperlink ref="E56" r:id="rId15" display="https://demoqa.com/"/>
+    <hyperlink ref="E59" r:id="rId16" display="v@t.rs"/>
+    <hyperlink ref="F59" r:id="rId17" display="The “Email” field is filled and visible :v@t.rs"/>
+    <hyperlink ref="E61" r:id="rId18" display="v@t.com"/>
+    <hyperlink ref="F61" r:id="rId19" display="The “Email” field is filled and visible :v@t.com"/>
+    <hyperlink ref="E65" r:id="rId20" display="https://demoqa.com/"/>
+    <hyperlink ref="E76" r:id="rId21" display="s@ccom"/>
+    <hyperlink ref="F76" r:id="rId22" display="The “Email” field is filled and visible :s@ccom"/>
+    <hyperlink ref="E80" r:id="rId23" display="s@c.comc"/>
+    <hyperlink ref="F80" r:id="rId24" display="The “Email” field is filled and visible :s@c.comc"/>
+    <hyperlink ref="E84" r:id="rId25" display="s@s.c om"/>
+    <hyperlink ref="F84" r:id="rId26" display="The “Email” field is filled and visible :s@s.c om"/>
+    <hyperlink ref="E88" r:id="rId27" display="s@s s.com"/>
+    <hyperlink ref="F88" r:id="rId28" display="The “Email” field is filled and visible :s@s s.com"/>
+    <hyperlink ref="E92" r:id="rId29" display="https://demoqa.com/"/>
+    <hyperlink ref="E98" r:id="rId30" display="https://demoqa.com/"/>
+    <hyperlink ref="E103" r:id="rId31" display="https://demoqa.com/"/>
+    <hyperlink ref="E109" r:id="rId32" display="https://demoqa.com/"/>
+    <hyperlink ref="E115" r:id="rId33" display="https://demoqa.com/"/>
+    <hyperlink ref="E121" r:id="rId34" display="https://demoqa.com/"/>
+    <hyperlink ref="E126" r:id="rId35" display="https://demoqa.com/"/>
+    <hyperlink ref="E132" r:id="rId36" display="https://demoqa.com/"/>
+    <hyperlink ref="E139" r:id="rId37" display="https://demoqa.com/"/>
+    <hyperlink ref="E146" r:id="rId38" display="https://demoqa.com/"/>
+    <hyperlink ref="E154" r:id="rId39" display="https://demoqa.com/"/>
+    <hyperlink ref="E162" r:id="rId40" display="https://demoqa.com/"/>
+    <hyperlink ref="E168" r:id="rId41" display="https://demoqa.com/"/>
+    <hyperlink ref="E175" r:id="rId42" display="https://demoqa.com/"/>
+    <hyperlink ref="E182" r:id="rId43" display="https://demoqa.com/"/>
+    <hyperlink ref="E190" r:id="rId44" display="https://demoqa.com/"/>
+    <hyperlink ref="E198" r:id="rId45" display="https://demoqa.com/"/>
+    <hyperlink ref="E203" r:id="rId46" display="https://demoqa.com/"/>
+    <hyperlink ref="E210" r:id="rId47" display="https://demoqa.com/"/>
+    <hyperlink ref="E216" r:id="rId48" display="https://demoqa.com/"/>
+    <hyperlink ref="E222" r:id="rId49" display="https://demoqa.com/"/>
+    <hyperlink ref="E228" r:id="rId50" display="https://demoqa.com/"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
@@ -4747,23 +5018,23 @@
   </sheetPr>
   <dimension ref="A1:D64"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="2" topLeftCell="A48" activePane="bottomLeft" state="frozen"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="B76" activeCellId="0" sqref="B76"/>
+      <selection pane="bottomLeft" activeCell="C78" activeCellId="0" sqref="C78"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.7578125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.82421875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="23" width="6.16"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="25" width="6.16"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="64.19"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="2" width="54.74"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="2" width="34.78"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="6" t="s">
-        <v>214</v>
+      <c r="A1" s="26" t="s">
+        <v>215</v>
       </c>
       <c r="B1" s="8" t="s">
         <v>12</v>
@@ -4773,581 +5044,581 @@
     </row>
     <row r="2" customFormat="false" ht="18.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="4" t="s">
-        <v>215</v>
-      </c>
-      <c r="B2" s="24" t="s">
         <v>216</v>
       </c>
+      <c r="B2" s="27" t="s">
+        <v>217</v>
+      </c>
       <c r="C2" s="4" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="25" t="s">
+      <c r="A3" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="25" t="s">
-        <v>219</v>
-      </c>
-      <c r="C3" s="26"/>
-      <c r="D3" s="26"/>
+      <c r="B3" s="28" t="s">
+        <v>220</v>
+      </c>
+      <c r="C3" s="29"/>
+      <c r="D3" s="29"/>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4" s="7"/>
       <c r="C4" s="7" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="D4" s="7"/>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="25" t="s">
-        <v>21</v>
-      </c>
-      <c r="B5" s="25" t="s">
-        <v>221</v>
-      </c>
-      <c r="C5" s="26"/>
-      <c r="D5" s="26"/>
+      <c r="A5" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5" s="28" t="s">
+        <v>222</v>
+      </c>
+      <c r="C5" s="29"/>
+      <c r="D5" s="29"/>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C6" s="7" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="25" t="s">
-        <v>25</v>
-      </c>
-      <c r="B7" s="27" t="s">
-        <v>223</v>
-      </c>
-      <c r="C7" s="27"/>
-      <c r="D7" s="27"/>
+      <c r="A7" s="28" t="s">
+        <v>26</v>
+      </c>
+      <c r="B7" s="30" t="s">
+        <v>224</v>
+      </c>
+      <c r="C7" s="30"/>
+      <c r="D7" s="30"/>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="28"/>
-      <c r="B8" s="29" t="s">
-        <v>224</v>
+      <c r="A8" s="31"/>
+      <c r="B8" s="32" t="s">
+        <v>225</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="D8" s="7"/>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="B9" s="25" t="s">
-        <v>225</v>
-      </c>
-      <c r="C9" s="26"/>
-      <c r="D9" s="26"/>
+      <c r="A9" s="28" t="s">
+        <v>30</v>
+      </c>
+      <c r="B9" s="28" t="s">
+        <v>226</v>
+      </c>
+      <c r="C9" s="29"/>
+      <c r="D9" s="29"/>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="28"/>
+      <c r="A10" s="31"/>
       <c r="B10" s="2" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="D10" s="7"/>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="25" t="s">
-        <v>33</v>
-      </c>
-      <c r="B11" s="25" t="s">
-        <v>227</v>
-      </c>
-      <c r="C11" s="26"/>
-      <c r="D11" s="26"/>
+      <c r="A11" s="28" t="s">
+        <v>34</v>
+      </c>
+      <c r="B11" s="28" t="s">
+        <v>228</v>
+      </c>
+      <c r="C11" s="29"/>
+      <c r="D11" s="29"/>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="28"/>
+      <c r="A12" s="31"/>
       <c r="B12" s="2" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D12" s="7"/>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="25" t="s">
-        <v>37</v>
-      </c>
-      <c r="B13" s="25" t="s">
-        <v>229</v>
-      </c>
-      <c r="C13" s="26"/>
-      <c r="D13" s="26"/>
+      <c r="A13" s="28" t="s">
+        <v>38</v>
+      </c>
+      <c r="B13" s="28" t="s">
+        <v>230</v>
+      </c>
+      <c r="C13" s="29"/>
+      <c r="D13" s="29"/>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="28"/>
-      <c r="B14" s="30" t="s">
-        <v>230</v>
-      </c>
-      <c r="C14" s="30" t="s">
-        <v>230</v>
+      <c r="A14" s="31"/>
+      <c r="B14" s="33" t="s">
+        <v>231</v>
+      </c>
+      <c r="C14" s="33" t="s">
+        <v>231</v>
       </c>
       <c r="D14" s="7"/>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="25" t="s">
-        <v>41</v>
-      </c>
-      <c r="B15" s="25" t="s">
-        <v>231</v>
-      </c>
-      <c r="C15" s="26"/>
-      <c r="D15" s="26"/>
+      <c r="A15" s="28" t="s">
+        <v>42</v>
+      </c>
+      <c r="B15" s="28" t="s">
+        <v>232</v>
+      </c>
+      <c r="C15" s="29"/>
+      <c r="D15" s="29"/>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="28"/>
-      <c r="B16" s="30" t="s">
-        <v>231</v>
-      </c>
-      <c r="C16" s="30" t="s">
-        <v>231</v>
+      <c r="A16" s="31"/>
+      <c r="B16" s="33" t="s">
+        <v>232</v>
+      </c>
+      <c r="C16" s="33" t="s">
+        <v>232</v>
       </c>
       <c r="D16" s="7"/>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="25" t="s">
-        <v>45</v>
-      </c>
-      <c r="B17" s="25" t="s">
-        <v>232</v>
-      </c>
-      <c r="C17" s="26"/>
-      <c r="D17" s="26"/>
+      <c r="A17" s="28" t="s">
+        <v>46</v>
+      </c>
+      <c r="B17" s="28" t="s">
+        <v>233</v>
+      </c>
+      <c r="C17" s="29"/>
+      <c r="D17" s="29"/>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="28"/>
-      <c r="B18" s="30" t="s">
-        <v>233</v>
-      </c>
-      <c r="C18" s="30" t="s">
-        <v>233</v>
+      <c r="A18" s="31"/>
+      <c r="B18" s="33" t="s">
+        <v>234</v>
+      </c>
+      <c r="C18" s="33" t="s">
+        <v>234</v>
       </c>
       <c r="D18" s="7"/>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="25" t="s">
-        <v>50</v>
-      </c>
-      <c r="B19" s="27" t="s">
-        <v>234</v>
-      </c>
-      <c r="C19" s="27"/>
-      <c r="D19" s="27"/>
+      <c r="A19" s="28" t="s">
+        <v>51</v>
+      </c>
+      <c r="B19" s="30" t="s">
+        <v>235</v>
+      </c>
+      <c r="C19" s="30"/>
+      <c r="D19" s="30"/>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B20" s="29" t="s">
-        <v>235</v>
+      <c r="B20" s="32" t="s">
+        <v>236</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="D20" s="7"/>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="25" t="s">
-        <v>55</v>
-      </c>
-      <c r="B21" s="27" t="s">
-        <v>236</v>
-      </c>
-      <c r="C21" s="27"/>
-      <c r="D21" s="27"/>
+      <c r="A21" s="28" t="s">
+        <v>56</v>
+      </c>
+      <c r="B21" s="30" t="s">
+        <v>237</v>
+      </c>
+      <c r="C21" s="30"/>
+      <c r="D21" s="30"/>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B22" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="D22" s="7"/>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B23" s="8" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="D23" s="7"/>
     </row>
     <row r="24" customFormat="false" ht="14.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B24" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="D24" s="7"/>
     </row>
     <row r="25" customFormat="false" ht="17.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B25" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>240</v>
-      </c>
-      <c r="D25" s="20"/>
+        <v>241</v>
+      </c>
+      <c r="D25" s="21"/>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="25" t="s">
-        <v>71</v>
-      </c>
-      <c r="B26" s="25" t="s">
-        <v>241</v>
-      </c>
-      <c r="C26" s="26"/>
-      <c r="D26" s="26"/>
+      <c r="A26" s="28" t="s">
+        <v>72</v>
+      </c>
+      <c r="B26" s="28" t="s">
+        <v>242</v>
+      </c>
+      <c r="C26" s="29"/>
+      <c r="D26" s="29"/>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="28"/>
+      <c r="A27" s="31"/>
       <c r="B27" s="8" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C27" s="8" t="s">
-        <v>242</v>
-      </c>
-      <c r="D27" s="20"/>
+        <v>243</v>
+      </c>
+      <c r="D27" s="21"/>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="28"/>
+      <c r="A28" s="31"/>
       <c r="B28" s="8" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C28" s="8" t="s">
-        <v>243</v>
-      </c>
-      <c r="D28" s="20"/>
+        <v>244</v>
+      </c>
+      <c r="D28" s="21"/>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="25" t="s">
-        <v>120</v>
-      </c>
-      <c r="B29" s="25" t="s">
-        <v>244</v>
-      </c>
-      <c r="C29" s="26"/>
-      <c r="D29" s="26"/>
+      <c r="A29" s="28" t="s">
+        <v>121</v>
+      </c>
+      <c r="B29" s="28" t="s">
+        <v>245</v>
+      </c>
+      <c r="C29" s="29"/>
+      <c r="D29" s="29"/>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B30" s="30" t="s">
-        <v>245</v>
-      </c>
-      <c r="C30" s="30" t="s">
-        <v>245</v>
+      <c r="B30" s="33" t="s">
+        <v>246</v>
+      </c>
+      <c r="C30" s="33" t="s">
+        <v>246</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="25" t="s">
-        <v>126</v>
-      </c>
-      <c r="B31" s="25" t="s">
-        <v>246</v>
-      </c>
-      <c r="C31" s="26"/>
-      <c r="D31" s="26"/>
+      <c r="A31" s="28" t="s">
+        <v>127</v>
+      </c>
+      <c r="B31" s="28" t="s">
+        <v>247</v>
+      </c>
+      <c r="C31" s="29"/>
+      <c r="D31" s="29"/>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B32" s="2" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="25" t="s">
-        <v>130</v>
-      </c>
-      <c r="B33" s="25" t="s">
-        <v>248</v>
-      </c>
-      <c r="C33" s="26"/>
-      <c r="D33" s="26"/>
+      <c r="A33" s="28" t="s">
+        <v>131</v>
+      </c>
+      <c r="B33" s="28" t="s">
+        <v>249</v>
+      </c>
+      <c r="C33" s="29"/>
+      <c r="D33" s="29"/>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B34" s="2" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="25" t="s">
-        <v>134</v>
-      </c>
-      <c r="B35" s="25" t="s">
-        <v>249</v>
-      </c>
-      <c r="C35" s="26"/>
-      <c r="D35" s="26"/>
+      <c r="A35" s="28" t="s">
+        <v>135</v>
+      </c>
+      <c r="B35" s="28" t="s">
+        <v>250</v>
+      </c>
+      <c r="C35" s="29"/>
+      <c r="D35" s="29"/>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A36" s="2"/>
-      <c r="B36" s="31" t="s">
-        <v>250</v>
-      </c>
-      <c r="C36" s="31" t="s">
-        <v>250</v>
+      <c r="B36" s="34" t="s">
+        <v>251</v>
+      </c>
+      <c r="C36" s="34" t="s">
+        <v>251</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="2"/>
-      <c r="B37" s="31"/>
-      <c r="C37" s="31"/>
+      <c r="B37" s="34"/>
+      <c r="C37" s="34"/>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="32" t="s">
-        <v>139</v>
-      </c>
-      <c r="B38" s="32" t="s">
-        <v>251</v>
-      </c>
-      <c r="C38" s="33"/>
-      <c r="D38" s="33"/>
+      <c r="A38" s="35" t="s">
+        <v>140</v>
+      </c>
+      <c r="B38" s="35" t="s">
+        <v>252</v>
+      </c>
+      <c r="C38" s="36"/>
+      <c r="D38" s="36"/>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B39" s="30" t="s">
-        <v>252</v>
-      </c>
-      <c r="C39" s="30" t="s">
-        <v>252</v>
+      <c r="B39" s="33" t="s">
+        <v>253</v>
+      </c>
+      <c r="C39" s="33" t="s">
+        <v>253</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="32" t="s">
-        <v>147</v>
-      </c>
-      <c r="B40" s="32" t="s">
-        <v>253</v>
-      </c>
-      <c r="C40" s="33"/>
-      <c r="D40" s="33"/>
+      <c r="A40" s="35" t="s">
+        <v>148</v>
+      </c>
+      <c r="B40" s="35" t="s">
+        <v>254</v>
+      </c>
+      <c r="C40" s="36"/>
+      <c r="D40" s="36"/>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B41" s="2" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="32" t="s">
-        <v>153</v>
-      </c>
-      <c r="B42" s="32" t="s">
-        <v>255</v>
-      </c>
-      <c r="C42" s="33"/>
-      <c r="D42" s="33"/>
+      <c r="A42" s="35" t="s">
+        <v>154</v>
+      </c>
+      <c r="B42" s="35" t="s">
+        <v>256</v>
+      </c>
+      <c r="C42" s="36"/>
+      <c r="D42" s="36"/>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B43" s="2" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="32" t="s">
-        <v>157</v>
-      </c>
-      <c r="B44" s="32" t="s">
-        <v>257</v>
-      </c>
-      <c r="C44" s="33"/>
-      <c r="D44" s="33"/>
+      <c r="A44" s="35" t="s">
+        <v>158</v>
+      </c>
+      <c r="B44" s="35" t="s">
+        <v>258</v>
+      </c>
+      <c r="C44" s="36"/>
+      <c r="D44" s="36"/>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B45" s="2" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="32" t="s">
-        <v>157</v>
-      </c>
-      <c r="B46" s="32" t="s">
-        <v>259</v>
-      </c>
-      <c r="C46" s="33"/>
-      <c r="D46" s="33"/>
+      <c r="A46" s="35" t="s">
+        <v>158</v>
+      </c>
+      <c r="B46" s="35" t="s">
+        <v>260</v>
+      </c>
+      <c r="C46" s="36"/>
+      <c r="D46" s="36"/>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B47" s="2" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="32" t="s">
-        <v>162</v>
-      </c>
-      <c r="B48" s="32" t="s">
-        <v>261</v>
-      </c>
-      <c r="C48" s="33"/>
-      <c r="D48" s="33"/>
+      <c r="A48" s="35" t="s">
+        <v>163</v>
+      </c>
+      <c r="B48" s="35" t="s">
+        <v>262</v>
+      </c>
+      <c r="C48" s="36"/>
+      <c r="D48" s="36"/>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B49" s="2" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="32" t="s">
-        <v>166</v>
-      </c>
-      <c r="B50" s="32" t="s">
-        <v>263</v>
-      </c>
-      <c r="C50" s="33"/>
-      <c r="D50" s="33"/>
+      <c r="A50" s="35" t="s">
+        <v>167</v>
+      </c>
+      <c r="B50" s="35" t="s">
+        <v>264</v>
+      </c>
+      <c r="C50" s="36"/>
+      <c r="D50" s="36"/>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B51" s="30" t="s">
-        <v>264</v>
-      </c>
-      <c r="C51" s="30" t="s">
-        <v>264</v>
+      <c r="B51" s="33" t="s">
+        <v>265</v>
+      </c>
+      <c r="C51" s="33" t="s">
+        <v>265</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="32" t="s">
-        <v>177</v>
-      </c>
-      <c r="B52" s="32" t="s">
-        <v>265</v>
-      </c>
-      <c r="C52" s="33"/>
-      <c r="D52" s="33"/>
+      <c r="A52" s="35" t="s">
+        <v>178</v>
+      </c>
+      <c r="B52" s="35" t="s">
+        <v>266</v>
+      </c>
+      <c r="C52" s="36"/>
+      <c r="D52" s="36"/>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B53" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="C53" s="34" t="s">
-        <v>266</v>
+        <v>181</v>
+      </c>
+      <c r="C53" s="37" t="s">
+        <v>267</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="32" t="s">
-        <v>187</v>
-      </c>
-      <c r="B54" s="32" t="s">
-        <v>267</v>
-      </c>
-      <c r="C54" s="33"/>
-      <c r="D54" s="33"/>
+      <c r="A54" s="35" t="s">
+        <v>188</v>
+      </c>
+      <c r="B54" s="35" t="s">
+        <v>268</v>
+      </c>
+      <c r="C54" s="36"/>
+      <c r="D54" s="36"/>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B55" s="2" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="32" t="s">
-        <v>191</v>
-      </c>
-      <c r="B56" s="32" t="s">
-        <v>269</v>
-      </c>
-      <c r="C56" s="33"/>
-      <c r="D56" s="33"/>
+      <c r="A56" s="35" t="s">
+        <v>192</v>
+      </c>
+      <c r="B56" s="35" t="s">
+        <v>270</v>
+      </c>
+      <c r="C56" s="36"/>
+      <c r="D56" s="36"/>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B57" s="2" t="s">
-        <v>270</v>
-      </c>
-      <c r="C57" s="35" t="s">
-        <v>270</v>
+        <v>271</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>271</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B58" s="2" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B59" s="2" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B60" s="2" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="32" t="s">
-        <v>197</v>
-      </c>
-      <c r="B61" s="32" t="s">
-        <v>274</v>
-      </c>
-      <c r="C61" s="33"/>
-      <c r="D61" s="33"/>
+      <c r="A61" s="35" t="s">
+        <v>198</v>
+      </c>
+      <c r="B61" s="35" t="s">
+        <v>275</v>
+      </c>
+      <c r="C61" s="36"/>
+      <c r="D61" s="36"/>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B62" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A63" s="35" t="s">
+        <v>203</v>
+      </c>
+      <c r="B63" s="35" t="s">
         <v>275</v>
       </c>
-      <c r="C62" s="2" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="32" t="s">
-        <v>202</v>
-      </c>
-      <c r="B63" s="32" t="s">
-        <v>274</v>
-      </c>
-      <c r="C63" s="33"/>
-      <c r="D63" s="33"/>
+      <c r="C63" s="36"/>
+      <c r="D63" s="36"/>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B64" s="2" t="s">
-        <v>276</v>
-      </c>
-      <c r="C64" s="35" t="s">
-        <v>276</v>
+        <v>277</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>277</v>
       </c>
     </row>
   </sheetData>
@@ -5385,122 +5656,122 @@
       <selection pane="topLeft" activeCell="H25" activeCellId="0" sqref="H25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.6875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.7578125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="19.08"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="30.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="4" t="s">
-        <v>215</v>
-      </c>
-      <c r="B1" s="36" t="s">
         <v>216</v>
       </c>
+      <c r="B1" s="38" t="s">
+        <v>217</v>
+      </c>
       <c r="C1" s="4" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="25" t="s">
-        <v>80</v>
-      </c>
-      <c r="B2" s="25" t="s">
-        <v>277</v>
-      </c>
-      <c r="C2" s="26"/>
-      <c r="D2" s="26"/>
+      <c r="A2" s="28" t="s">
+        <v>81</v>
+      </c>
+      <c r="B2" s="28" t="s">
+        <v>278</v>
+      </c>
+      <c r="C2" s="29"/>
+      <c r="D2" s="29"/>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="20"/>
+      <c r="A3" s="21"/>
       <c r="B3" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="C3" s="20"/>
-      <c r="D3" s="20"/>
+        <v>85</v>
+      </c>
+      <c r="C3" s="21"/>
+      <c r="D3" s="21"/>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="20"/>
+      <c r="A4" s="21"/>
       <c r="B4" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="C4" s="20"/>
-      <c r="D4" s="20"/>
+        <v>89</v>
+      </c>
+      <c r="C4" s="21"/>
+      <c r="D4" s="21"/>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="20"/>
+      <c r="A5" s="21"/>
       <c r="B5" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="C5" s="20"/>
-      <c r="D5" s="20"/>
+        <v>92</v>
+      </c>
+      <c r="C5" s="21"/>
+      <c r="D5" s="21"/>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="20"/>
+      <c r="A6" s="21"/>
       <c r="B6" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="C6" s="20"/>
-      <c r="D6" s="20"/>
+        <v>95</v>
+      </c>
+      <c r="C6" s="21"/>
+      <c r="D6" s="21"/>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="20"/>
+      <c r="A7" s="21"/>
       <c r="B7" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="C7" s="20"/>
-      <c r="D7" s="20"/>
+        <v>98</v>
+      </c>
+      <c r="C7" s="21"/>
+      <c r="D7" s="21"/>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="20"/>
+      <c r="A8" s="21"/>
       <c r="B8" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="C8" s="20"/>
-      <c r="D8" s="20"/>
+        <v>101</v>
+      </c>
+      <c r="C8" s="21"/>
+      <c r="D8" s="21"/>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="20"/>
+      <c r="A9" s="21"/>
       <c r="B9" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="C9" s="20"/>
-      <c r="D9" s="20"/>
+        <v>104</v>
+      </c>
+      <c r="C9" s="21"/>
+      <c r="D9" s="21"/>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="20"/>
+      <c r="A10" s="21"/>
       <c r="B10" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="C10" s="20"/>
-      <c r="D10" s="20"/>
+        <v>107</v>
+      </c>
+      <c r="C10" s="21"/>
+      <c r="D10" s="21"/>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="20"/>
+      <c r="A11" s="21"/>
       <c r="B11" s="8" t="s">
-        <v>109</v>
-      </c>
-      <c r="C11" s="20"/>
-      <c r="D11" s="20"/>
+        <v>110</v>
+      </c>
+      <c r="C11" s="21"/>
+      <c r="D11" s="21"/>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="20"/>
+      <c r="A12" s="21"/>
       <c r="B12" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="C12" s="20"/>
-      <c r="D12" s="20"/>
+        <v>113</v>
+      </c>
+      <c r="C12" s="21"/>
+      <c r="D12" s="21"/>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="20"/>
-      <c r="B13" s="37" t="s">
-        <v>278</v>
-      </c>
-      <c r="C13" s="20"/>
-      <c r="D13" s="20"/>
+      <c r="A13" s="21"/>
+      <c r="B13" s="39" t="s">
+        <v>279</v>
+      </c>
+      <c r="C13" s="21"/>
+      <c r="D13" s="21"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -5517,4 +5788,300 @@
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:E11"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="L18" activeCellId="0" sqref="L18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="17.35" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="40" width="26.03"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="41" width="38.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="42" width="20.18"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="43" t="s">
+        <v>280</v>
+      </c>
+      <c r="B1" s="44" t="n">
+        <v>1</v>
+      </c>
+      <c r="C1" s="45" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="43" t="s">
+        <v>281</v>
+      </c>
+      <c r="B2" s="46" t="s">
+        <v>282</v>
+      </c>
+      <c r="C2" s="47"/>
+    </row>
+    <row r="3" customFormat="false" ht="30.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A3" s="43" t="s">
+        <v>283</v>
+      </c>
+      <c r="B3" s="46" t="s">
+        <v>284</v>
+      </c>
+      <c r="C3" s="47"/>
+    </row>
+    <row r="4" customFormat="false" ht="22.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A4" s="43" t="s">
+        <v>285</v>
+      </c>
+      <c r="B4" s="48" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="47"/>
+    </row>
+    <row r="5" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="43"/>
+      <c r="B5" s="48" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="49" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="43"/>
+      <c r="B6" s="48" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" s="47"/>
+    </row>
+    <row r="7" customFormat="false" ht="41.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A7" s="43" t="s">
+        <v>286</v>
+      </c>
+      <c r="B7" s="50" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" s="47"/>
+    </row>
+    <row r="8" customFormat="false" ht="39.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A8" s="43" t="s">
+        <v>287</v>
+      </c>
+      <c r="B8" s="51" t="s">
+        <v>288</v>
+      </c>
+      <c r="C8" s="47"/>
+    </row>
+    <row r="9" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="43" t="s">
+        <v>289</v>
+      </c>
+      <c r="B9" s="48"/>
+      <c r="C9" s="47"/>
+    </row>
+    <row r="11" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E11" s="52"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C5" r:id="rId1" display="https://demoqa.com/"/>
+  </hyperlinks>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:C17"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E14" activeCellId="0" sqref="E14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="25" width="26.03"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="41" width="59.88"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="20.18"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="43" t="s">
+        <v>280</v>
+      </c>
+      <c r="B1" s="53" t="n">
+        <v>2</v>
+      </c>
+      <c r="C1" s="45" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="43" t="s">
+        <v>281</v>
+      </c>
+      <c r="B2" s="46" t="s">
+        <v>290</v>
+      </c>
+      <c r="C2" s="47"/>
+    </row>
+    <row r="3" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="43" t="s">
+        <v>283</v>
+      </c>
+      <c r="B3" s="46" t="s">
+        <v>291</v>
+      </c>
+      <c r="C3" s="47"/>
+    </row>
+    <row r="4" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="43" t="s">
+        <v>285</v>
+      </c>
+      <c r="B4" s="48" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="47"/>
+    </row>
+    <row r="5" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="43"/>
+      <c r="B5" s="48" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="49" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="43"/>
+      <c r="B6" s="48" t="s">
+        <v>28</v>
+      </c>
+      <c r="C6" s="47"/>
+    </row>
+    <row r="7" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="43"/>
+      <c r="B7" s="48" t="s">
+        <v>58</v>
+      </c>
+      <c r="C7" s="47"/>
+    </row>
+    <row r="8" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="43"/>
+      <c r="B8" s="48" t="s">
+        <v>59</v>
+      </c>
+      <c r="C8" s="47" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="43"/>
+      <c r="B9" s="48" t="s">
+        <v>62</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="43"/>
+      <c r="B10" s="54" t="s">
+        <v>65</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="43"/>
+      <c r="B11" s="48" t="s">
+        <v>68</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="43"/>
+      <c r="B12" s="48" t="s">
+        <v>70</v>
+      </c>
+      <c r="C12" s="47"/>
+    </row>
+    <row r="13" customFormat="false" ht="18.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A13" s="43" t="s">
+        <v>286</v>
+      </c>
+      <c r="B13" s="55" t="s">
+        <v>71</v>
+      </c>
+      <c r="C13" s="56"/>
+    </row>
+    <row r="14" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A14" s="43"/>
+      <c r="B14" s="55"/>
+      <c r="C14" s="56"/>
+    </row>
+    <row r="15" customFormat="false" ht="32.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A15" s="43" t="s">
+        <v>287</v>
+      </c>
+      <c r="B15" s="55" t="s">
+        <v>292</v>
+      </c>
+      <c r="C15" s="56"/>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="43"/>
+      <c r="B16" s="55"/>
+      <c r="C16" s="56"/>
+    </row>
+    <row r="17" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="43" t="s">
+        <v>289</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="C15:C16"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="C5" r:id="rId1" display="https://demoqa.com/"/>
+    <hyperlink ref="C9" r:id="rId2" display="vlada@test.com"/>
+    <hyperlink ref="B13" r:id="rId3" display="vlada@test.com"/>
+    <hyperlink ref="B15" r:id="rId4" display="vlada@test.com"/>
+  </hyperlinks>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+  <drawing r:id="rId5"/>
+</worksheet>
 </file>